--- a/Item_Info.xlsx
+++ b/Item_Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27c08337ad3375f7/빨간망토/데이터 테이블/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_2E22529D54DCCE836B02CE998F4CD45F6C2A2976" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B89287E9-52A1-4114-A38D-D882ABD0F0B8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C51B298-E9A4-4409-9444-4A1E6A9EB1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4695" yWindow="2055" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>부위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Armor_part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Armor_atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,18 +217,6 @@
   </si>
   <si>
     <t>Armor_explanation</t>
-  </si>
-  <si>
-    <t>Helmet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChestArmor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LegArmor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -622,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -708,126 +684,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -839,7 +695,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B4" sqref="B4:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -924,12 +780,8 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -937,12 +789,8 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -950,12 +798,8 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -963,12 +807,8 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -976,12 +816,8 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -989,12 +825,8 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1002,12 +834,8 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1015,12 +843,8 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1028,12 +852,8 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="1">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1041,12 +861,8 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="1">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1054,12 +870,8 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="1">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1067,12 +879,8 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1080,12 +888,8 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="1">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1093,12 +897,8 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="1">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1106,12 +906,8 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="1">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1125,10 +921,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190C59BF-9543-48F1-BB0D-FDCF9B553F8D}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B4" sqref="B4:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1221,135 +1017,6 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1358,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8B7594-854B-40F4-B28F-BD7B5130D053}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1369,17 +1036,17 @@
     <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="4" max="6" width="13.375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1399,25 +1066,22 @@
         <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1428,7 +1092,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1437,189 +1101,54 @@
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Item_Info.xlsx
+++ b/Item_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C51B298-E9A4-4409-9444-4A1E6A9EB1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4C3E2F-8768-4E77-8DB0-7CD4F88A3348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="2055" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="78">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,14 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>부과효과 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Armor_id</t>
   </si>
   <si>
@@ -206,10 +194,6 @@
     <t>Armor_weight</t>
   </si>
   <si>
-    <t>Armor_additional1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Armor_sell_price</t>
   </si>
   <si>
@@ -217,6 +201,142 @@
   </si>
   <si>
     <t>Armor_explanation</t>
+  </si>
+  <si>
+    <t>ITM_DRP_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_POT_HEAL_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potion_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형 힐링 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_WPN_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_PON_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_ARM_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_SHO_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 망토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 전신옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_MIN_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_HER_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쟈스민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미 광석 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미 약초 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미 드랍템 데이터. 상점에 판매하지 않는 아이템의 경우 어떻게 하지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_POT_BUFF_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형 공격력 증가 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potion_effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 힐링 포션, 효과는 체력 30 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력을 살짝 올려주는 포션, 효과는 공격력 30% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_POT_BUFF_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형 발소리 감소 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발소리를 줄여주는 포션, 효과는 발소리 범위 30% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_USE_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌맹이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던질 수 있는 돌멩이, 사용 거리라던가 넣어야하는데 테이블 분리할까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -598,90 +718,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -692,120 +914,194 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D032C6B-C866-4CFC-B063-5F66B309E307}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1">
+        <v>150</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -813,8 +1109,10 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -822,8 +1120,10 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -831,8 +1131,10 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -840,8 +1142,10 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -849,8 +1153,10 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -858,8 +1164,10 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -867,8 +1175,10 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -876,8 +1186,10 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -885,8 +1197,10 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -894,8 +1208,10 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -903,8 +1219,10 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -912,6 +1230,8 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -921,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190C59BF-9543-48F1-BB0D-FDCF9B553F8D}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D18"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -935,22 +1255,22 @@
     <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
     <col min="5" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.25" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -967,54 +1287,77 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>31</v>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1">
+        <v>200</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1025,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8B7594-854B-40F4-B28F-BD7B5130D053}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1037,118 +1380,196 @@
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="13.375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1">
+        <v>150</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="E5" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>47</v>
+      <c r="I5" s="1">
+        <v>200</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1">
+        <v>100</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Item_Info.xlsx
+++ b/Item_Info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4C3E2F-8768-4E77-8DB0-7CD4F88A3348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AE353F-B8E2-4BA7-829B-FD1AACCA5EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="85">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,7 +335,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>던질 수 있는 돌멩이, 사용 거리라던가 넣어야하는데 테이블 분리할까?</t>
+    <t>던질 수 있는 돌멩이, 사용 거리라던가 넣어야하는데 테이블 분리해야 할 듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 최대개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_maxAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 판초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 곡괭이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -729,14 +757,15 @@
     <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -747,22 +776,25 @@
         <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -776,19 +808,22 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -799,22 +834,25 @@
         <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
@@ -822,22 +860,25 @@
         <v>59</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>10</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>60</v>
       </c>
@@ -845,22 +886,25 @@
         <v>47</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.3</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>10</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>61</v>
       </c>
@@ -868,22 +912,25 @@
         <v>62</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>10</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
@@ -891,18 +938,21 @@
         <v>76</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.5</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
       <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>5</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -914,10 +964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D032C6B-C866-4CFC-B063-5F66B309E307}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -925,15 +975,16 @@
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="54.75" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -944,25 +995,28 @@
         <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -979,19 +1033,22 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1002,25 +1059,28 @@
         <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>48</v>
@@ -1029,25 +1089,28 @@
         <v>50</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>30</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>10</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>50</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>66</v>
@@ -1056,25 +1119,28 @@
         <v>67</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>30</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.5</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>30</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>150</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>72</v>
@@ -1083,25 +1149,28 @@
         <v>73</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>30</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.5</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>10</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>50</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1111,8 +1180,9 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1122,8 +1192,9 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1133,8 +1204,9 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1144,8 +1216,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1155,8 +1228,9 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1166,8 +1240,9 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1177,8 +1252,9 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1188,8 +1264,9 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1199,8 +1276,9 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1210,8 +1288,9 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1221,8 +1300,9 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1232,6 +1312,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1241,25 +1322,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190C59BF-9543-48F1-BB0D-FDCF9B553F8D}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.25" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1267,25 +1350,31 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1293,25 +1382,31 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1319,44 +1414,56 @@
         <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
+      <c r="C4" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>100</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>200</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1368,28 +1475,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8B7594-854B-40F4-B28F-BD7B5130D053}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1397,31 +1506,37 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1429,7 +1544,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -1441,19 +1556,25 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1461,114 +1582,138 @@
         <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
+      <c r="C4" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
         <v>30</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>150</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
+      <c r="C5" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>5</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>40</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>200</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
+      <c r="C6" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
         <v>20</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <v>100</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>58</v>
       </c>
     </row>

--- a/Item_Info.xlsx
+++ b/Item_Info.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AE353F-B8E2-4BA7-829B-FD1AACCA5EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895E4932-53FF-4893-8540-2B3CC7B927EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Item" sheetId="1" r:id="rId1"/>
-    <sheet name="Potion" sheetId="2" r:id="rId2"/>
-    <sheet name="Tool" sheetId="3" r:id="rId3"/>
-    <sheet name="Armor" sheetId="4" r:id="rId4"/>
+    <sheet name="UseItem" sheetId="10" r:id="rId1"/>
+    <sheet name="DropItem" sheetId="7" r:id="rId2"/>
+    <sheet name="Herb" sheetId="9" r:id="rId3"/>
+    <sheet name="Mineral" sheetId="8" r:id="rId4"/>
+    <sheet name="Potion" sheetId="2" r:id="rId5"/>
+    <sheet name="Tool" sheetId="3" r:id="rId6"/>
+    <sheet name="Armor" sheetId="4" r:id="rId7"/>
+    <sheet name="ResourceNode" sheetId="6" r:id="rId8"/>
+    <sheet name="DropTable" sheetId="5" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="광물id">OFFSET(Mineral!$B$4,0,0,COUNTA(Mineral!$B:$B),1)</definedName>
+    <definedName name="드롭템id">OFFSET(DropItem!$B$4,0,0,COUNTA(DropItem!$B:$B),1)</definedName>
+    <definedName name="사용템id">OFFSET(UseItem!$B$4,0,0,COUNTA(UseItem!$B:$B),1)</definedName>
+    <definedName name="약초id">OFFSET(Herb!$B$4,0,0,COUNTA(Herb!$B:$B),1)</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,8 +49,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={FD595059-0693-49EC-8400-D9EEC9EFBCFD}</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{FD595059-0693-49EC-8400-D9EEC9EFBCFD}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    사용거리가 0이라면 설치형 아이템</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="146">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,10 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>더미 드랍템 데이터. 상점에 판매하지 않는 아이템의 경우 어떻게 하지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ITM_POT_BUFF_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,6 +389,242 @@
   </si>
   <si>
     <t>기본 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드롭테이블 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropTable_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드롭테이블 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropTable_Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#아이템1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPR_INT</t>
+  </si>
+  <si>
+    <t>CPR_INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPR_DST</t>
+  </si>
+  <si>
+    <t>CPR_DST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPR_FIN</t>
+  </si>
+  <si>
+    <t>CPR_FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미 드랍템 데이터.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_MIN_002</t>
+  </si>
+  <si>
+    <t>ITM_MIN_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_MIN_003</t>
+  </si>
+  <si>
+    <t>ITM_MIN_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#아이템2</t>
+  </si>
+  <si>
+    <t>#아이템2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#아이템3</t>
+  </si>
+  <si>
+    <t>#등장확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#최소개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#최대개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채집물 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채집 저항력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채집 가능 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파괴 DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용 DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수조건 DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용 마지막 DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceNode_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gathering_count</t>
+  </si>
+  <si>
+    <t>DT_destroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_interaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_lastInteraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPR_CON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPR_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temporary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_MIN_001</t>
+  </si>
+  <si>
+    <t>UseItem_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseItem_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseItem_maxAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseItem_rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseItem_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseItem_useDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던질 수 있는 돌멩이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSM_INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSM_DST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSM_FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSM_CON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_HER_001</t>
+  </si>
+  <si>
+    <t>ITM_HER_002</t>
+  </si>
+  <si>
+    <t>ITM_HER_003</t>
+  </si>
+  <si>
+    <t>쥬니퍼베리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로즈마리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +632,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,16 +647,40 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -403,20 +688,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -427,6 +1002,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="진우 정" id="{3E61A1CB-F443-4652-9F2C-6087827B106C}" userId="27c08337ad3375f7" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -744,12 +1325,174 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D1" dT="2025-04-13T18:40:10.18" personId="{3E61A1CB-F443-4652-9F2C-6087827B106C}" id="{FD595059-0693-49EC-8400-D9EEC9EFBCFD}">
+    <text>사용거리가 0이라면 설치형 아이템</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39B297B-3890-4043-856D-F4A60F5A9BA5}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="70.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A329797-2AD7-4E84-B33C-1A87B89CCD21}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -765,90 +1508,90 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -875,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -906,10 +1649,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1">
         <v>99</v>
@@ -918,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G6" s="1">
         <v>10</v>
@@ -927,18 +1670,18 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -947,13 +1690,65 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="1">
+        <v>99</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>77</v>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -962,12 +1757,396 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88FCAF9-52E5-4DBB-B969-4572DE4CAA35}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1">
+        <v>99</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="1">
+        <v>99</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1">
+        <v>99</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F361D76-0463-4865-BC3F-D8EEDCFC9FA7}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1">
+        <v>99</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="1">
+        <v>99</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="1">
+        <v>99</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D032C6B-C866-4CFC-B063-5F66B309E307}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -984,99 +2163,99 @@
     <col min="10" max="10" width="54.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1107,16 +2286,16 @@
         <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
@@ -1137,16 +2316,16 @@
         <v>150</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
@@ -1167,7 +2346,7 @@
         <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1320,12 +2499,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190C59BF-9543-48F1-BB0D-FDCF9B553F8D}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1342,99 +2521,99 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1443,7 +2622,7 @@
         <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1473,12 +2652,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8B7594-854B-40F4-B28F-BD7B5130D053}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1498,117 +2677,117 @@
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1617,7 +2796,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1652,7 +2831,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1721,4 +2900,619 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F03D917-652C-4B95-8311-3563190FC408}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424FDDD7-8816-4D1B-8E9E-5F9FF8A2A00D}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="str">
+        <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D4,E4,F4,G4),_xlfn.TEXTJOIN("/",TRUE,H4,I4,J4,K4),_xlfn.TEXTJOIN("/",TRUE,L4,M4,N4,O4))</f>
+        <v>ITM_MIN_001/100/2/3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="str">
+        <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D5,E5,F5,G5),_xlfn.TEXTJOIN("/",TRUE,H5,I5,J5,K5),_xlfn.TEXTJOIN("/",TRUE,L5,M5,N5,O5))</f>
+        <v>ITM_MIN_001/50/1/2~ITM_MIN_002/50/1/3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="str">
+        <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D6,E6,F6,G6),_xlfn.TEXTJOIN("/",TRUE,H6,I6,J6,K6),_xlfn.TEXTJOIN("/",TRUE,L6,M6,N6,O6))</f>
+        <v>ITM_MIN_001/33/1/2~ITM_MIN_002/33/1/2~ITM_MIN_003/34/1/1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6">
+        <v>34</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:C17" si="0">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D7,E7,F7,G7),_xlfn.TEXTJOIN("/",TRUE,H7,I7,J7,K7),_xlfn.TEXTJOIN("/",TRUE,L7,M7,N7,O7))</f>
+        <v>ITM_MIN_001/50/1/2~ITM_MIN_002/50/1/3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>ITM_HER_001/100/1/2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>ITM_HER_001/50/1/2~ITM_HER_002/50/1/3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9">
+        <v>50</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>ITM_HER_001/33/1/2~ITM_HER_002/33/1/2~ITM_HER_003/34/1/1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10">
+        <v>33</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10">
+        <v>33</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>143</v>
+      </c>
+      <c r="M10">
+        <v>34</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>ITM_HER_001/50/1/2~ITM_HER_002/50/1/3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11">
+        <v>50</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D4:D7">
+    <cfRule type="expression" dxfId="18" priority="8">
+      <formula>AND(D4&lt;&gt;"", ISERROR(MATCH(D4, 광물id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H7">
+    <cfRule type="expression" dxfId="17" priority="6">
+      <formula>AND(H4&lt;&gt;"", ISERROR(MATCH(H4, 광물id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L7">
+    <cfRule type="expression" dxfId="16" priority="5">
+      <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 광물id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D11">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>AND(D8&lt;&gt;"", ISERROR(MATCH(D8, 약초id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H11">
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>AND(H8&lt;&gt;"", ISERROR(MATCH(H8, 약초id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L11">
+    <cfRule type="expression" dxfId="13" priority="1">
+      <formula>AND(L8&lt;&gt;"", ISERROR(MATCH(L8, 약초id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4" xr:uid="{822D99DA-CDD1-48A9-814E-8649AB8547E6}">
+      <formula1>아이템id</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="D4:D7 H4:H7 L4:L7" xr:uid="{EF120697-70A6-4536-ACD9-CA927FDA268E}">
+      <formula1>광물id</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D11 H8:H11 L8:L11" xr:uid="{B3D1218B-899B-4FC9-998E-BB2592CC9EC5}">
+      <formula1>약초id</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Item_Info.xlsx
+++ b/Item_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895E4932-53FF-4893-8540-2B3CC7B927EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F070331-FBE2-4144-B04B-E8E0FDF6AC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UseItem" sheetId="10" r:id="rId1"/>
@@ -22,9 +22,12 @@
     <sheet name="Armor" sheetId="4" r:id="rId7"/>
     <sheet name="ResourceNode" sheetId="6" r:id="rId8"/>
     <sheet name="DropTable" sheetId="5" r:id="rId9"/>
+    <sheet name="Condition" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="광물id">OFFSET(Mineral!$B$4,0,0,COUNTA(Mineral!$B:$B),1)</definedName>
+    <definedName name="드롭테이블">OFFSET(DropTable!$B$4,0,0,COUNTA(DropTable!$B:$B),1)</definedName>
+    <definedName name="드롭템id" localSheetId="9">OFFSET(Condition!$B$4,0,0,COUNTA(Condition!$B:$B),1)</definedName>
     <definedName name="드롭템id">OFFSET(DropItem!$B$4,0,0,COUNTA(DropItem!$B:$B),1)</definedName>
     <definedName name="사용템id">OFFSET(UseItem!$B$4,0,0,COUNTA(UseItem!$B:$B),1)</definedName>
     <definedName name="약초id">OFFSET(Herb!$B$4,0,0,COUNTA(Herb!$B:$B),1)</definedName>
@@ -68,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="164">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,10 +363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>던질 수 있는 돌멩이, 사용 거리라던가 넣어야하는데 테이블 분리해야 할 듯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 최대개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -625,6 +624,77 @@
   </si>
   <si>
     <t>로즈마리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_HER_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPR_CON</t>
+  </si>
+  <si>
+    <t>JSM_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSM_DST</t>
+  </si>
+  <si>
+    <t>JSM_CON</t>
+  </si>
+  <si>
+    <t>JSM_FIN</t>
+  </si>
+  <si>
+    <t>JSM_INT</t>
+  </si>
+  <si>
+    <t>채집물 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceNode_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explaination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 기본 채집물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쟈스민 기본 채집물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨디션 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨디션 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition_explanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미 조건</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +702,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,12 +716,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -734,21 +798,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -774,7 +824,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -790,195 +839,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1366,10 +1226,10 @@
         <v>45</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -1424,22 +1284,22 @@
         <v>17</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>12</v>
@@ -1477,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1487,12 +1347,92 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C04FAAE-BA01-4C13-8221-18036A947D32}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A329797-2AD7-4E84-B33C-1A87B89CCD21}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1519,7 +1459,7 @@
         <v>45</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>1</v>
@@ -1577,7 +1517,7 @@
         <v>46</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
@@ -1618,137 +1558,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="1">
-        <v>99</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="1">
-        <v>99</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G6" s="1">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="1">
-        <v>99</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="1">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="1">
-        <v>99</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>5</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1762,7 +1572,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:XFD3"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1789,7 +1599,7 @@
         <v>45</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>1</v>
@@ -1847,7 +1657,7 @@
         <v>46</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
@@ -1893,10 +1703,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1">
         <v>99</v>
@@ -1919,10 +1729,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="1">
         <v>99</v>
@@ -1954,7 +1764,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1981,7 +1791,7 @@
         <v>45</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>1</v>
@@ -2039,7 +1849,7 @@
         <v>46</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
@@ -2085,10 +1895,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D5" s="1">
         <v>99</v>
@@ -2111,10 +1921,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D6" s="1">
         <v>99</v>
@@ -2145,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D032C6B-C866-4CFC-B063-5F66B309E307}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2174,7 +1984,7 @@
         <v>45</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>1</v>
@@ -2238,7 +2048,7 @@
         <v>49</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>20</v>
@@ -2504,7 +2314,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2532,7 +2342,7 @@
         <v>45</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>1</v>
@@ -2593,10 +2403,10 @@
         <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>25</v>
@@ -2622,7 +2432,7 @@
         <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2657,7 +2467,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2688,7 +2498,7 @@
         <v>45</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>1</v>
@@ -2761,10 +2571,10 @@
         <v>35</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>36</v>
@@ -2796,7 +2606,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2831,7 +2641,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2904,58 +2714,66 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F03D917-652C-4B95-8311-3563190FC408}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -2963,7 +2781,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>6</v>
@@ -2972,7 +2790,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>8</v>
@@ -2986,70 +2804,133 @@
       <c r="J2" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L3" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" t="s">
         <v>126</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="K4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J4" t="s">
-        <v>125</v>
+      <c r="G5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L5" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="K4:K32">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(K4&lt;&gt;"", ISERROR(MATCH(K4, 드롭테이블, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K32 G4:I5 G6:G25 H6:I30" xr:uid="{F42B564B-3756-481A-AB54-7A2D4083505B}">
+      <formula1>드롭테이블</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3059,7 +2940,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3076,46 +2957,46 @@
         <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="H1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="M1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -3146,10 +3027,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -3166,7 +3047,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D4,E4,F4,G4),_xlfn.TEXTJOIN("/",TRUE,H4,I4,J4,K4),_xlfn.TEXTJOIN("/",TRUE,L4,M4,N4,O4))</f>
@@ -3189,14 +3070,14 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D5,E5,F5,G5),_xlfn.TEXTJOIN("/",TRUE,H5,I5,J5,K5),_xlfn.TEXTJOIN("/",TRUE,L5,M5,N5,O5))</f>
         <v>ITM_MIN_001/50/1/2~ITM_MIN_002/50/1/3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -3208,7 +3089,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -3223,14 +3104,14 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D6,E6,F6,G6),_xlfn.TEXTJOIN("/",TRUE,H6,I6,J6,K6),_xlfn.TEXTJOIN("/",TRUE,L6,M6,N6,O6))</f>
         <v>ITM_MIN_001/33/1/2~ITM_MIN_002/33/1/2~ITM_MIN_003/34/1/1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E6">
         <v>33</v>
@@ -3242,7 +3123,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I6">
         <v>33</v>
@@ -3254,7 +3135,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M6">
         <v>34</v>
@@ -3268,14 +3149,14 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ref="C7:C17" si="0">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D7,E7,F7,G7),_xlfn.TEXTJOIN("/",TRUE,H7,I7,J7,K7),_xlfn.TEXTJOIN("/",TRUE,L7,M7,N7,O7))</f>
         <v>ITM_MIN_001/50/1/2~ITM_MIN_002/50/1/3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -3287,7 +3168,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -3302,14 +3183,14 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_001/100/1/2</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -3323,14 +3204,14 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_001/50/1/2~ITM_HER_002/50/1/3</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -3342,7 +3223,7 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I9">
         <v>50</v>
@@ -3356,14 +3237,14 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_001/33/1/2~ITM_HER_002/33/1/2~ITM_HER_003/34/1/1</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E10">
         <v>33</v>
@@ -3375,7 +3256,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I10">
         <v>33</v>
@@ -3387,7 +3268,7 @@
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M10">
         <v>34</v>
@@ -3401,14 +3282,14 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_001/50/1/2~ITM_HER_002/50/1/3</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -3420,7 +3301,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I11">
         <v>50</v>
@@ -3473,32 +3354,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:D7">
-    <cfRule type="expression" dxfId="18" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>AND(D4&lt;&gt;"", ISERROR(MATCH(D4, 광물id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D11">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>AND(D8&lt;&gt;"", ISERROR(MATCH(D8, 약초id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H4:H7">
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>AND(H4&lt;&gt;"", ISERROR(MATCH(H4, 광물id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H11">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>AND(H8&lt;&gt;"", ISERROR(MATCH(H8, 약초id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L4:L7">
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 광물id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D11">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>AND(D8&lt;&gt;"", ISERROR(MATCH(D8, 약초id, 0)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H11">
-    <cfRule type="expression" dxfId="14" priority="2">
-      <formula>AND(H8&lt;&gt;"", ISERROR(MATCH(H8, 약초id, 0)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L8:L11">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(L8&lt;&gt;"", ISERROR(MATCH(L8, 약초id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Item_Info.xlsx
+++ b/Item_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F070331-FBE2-4144-B04B-E8E0FDF6AC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6ECC08-3F21-4B62-AFC9-F4CAB7F811BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UseItem" sheetId="10" r:id="rId1"/>
@@ -70,8 +70,384 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>정진우</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{FECB6C11-F50C-4379-BC26-41A037C19A4F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정진우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>몬스터나</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>플레이어의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받으면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> hp</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>깎이는지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{C3BF6526-1C4C-41DE-8F64-B2AE03366A7D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정진우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>몬스터나</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>플레이어의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받으면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오브젝트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사라짐
+이걸</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>특수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조건으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>뺄지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고미중</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="169">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,14 +675,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_MIN_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_HER_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>쟈스민</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,24 +804,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_MIN_002</t>
-  </si>
-  <si>
-    <t>ITM_MIN_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>은</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_MIN_003</t>
-  </si>
-  <si>
-    <t>ITM_MIN_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>금</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -551,17 +905,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CPR_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>temporary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_MIN_001</t>
-  </si>
-  <si>
     <t>UseItem_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -610,15 +957,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_HER_001</t>
-  </si>
-  <si>
-    <t>ITM_HER_002</t>
-  </si>
-  <si>
-    <t>ITM_HER_003</t>
-  </si>
-  <si>
     <t>쥬니퍼베리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -627,17 +965,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_HER_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CPR_CON</t>
   </si>
   <si>
-    <t>JSM_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JSM_DST</t>
   </si>
   <si>
@@ -695,6 +1025,73 @@
   </si>
   <si>
     <t>더미 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOD_MIN_CPR_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOD_HER_JSM_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨지기 쉬움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFragile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파괴 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDestructible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_MIN_CPR</t>
+  </si>
+  <si>
+    <t>ITM_MIN_CPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_MIN_SIL</t>
+  </si>
+  <si>
+    <t>ITM_MIN_SIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_MIN_GOL</t>
+  </si>
+  <si>
+    <t>ITM_MIN_GOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_HER_JSM</t>
+  </si>
+  <si>
+    <t>ITM_HER_JSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_HER_JNB</t>
+  </si>
+  <si>
+    <t>ITM_HER_JNB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_HER_RSM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +1099,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,6 +1113,34 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -771,7 +1196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -794,18 +1219,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -851,6 +1276,13 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -862,6 +1294,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1226,10 +1675,10 @@
         <v>45</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -1284,22 +1733,22 @@
         <v>17</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>12</v>
@@ -1313,10 +1762,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -1337,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1351,7 +1800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C04FAAE-BA01-4C13-8221-18036A947D32}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1373,10 +1822,10 @@
         <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
@@ -1401,24 +1850,24 @@
         <v>17</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1459,7 +1908,7 @@
         <v>45</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>1</v>
@@ -1517,7 +1966,7 @@
         <v>46</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
@@ -1558,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1572,7 +2021,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1599,7 +2048,7 @@
         <v>45</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>1</v>
@@ -1657,7 +2106,7 @@
         <v>46</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
@@ -1677,10 +2126,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1">
         <v>99</v>
@@ -1698,15 +2147,15 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D5" s="1">
         <v>99</v>
@@ -1724,15 +2173,15 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D6" s="1">
         <v>99</v>
@@ -1750,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1764,7 +2213,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1791,7 +2240,7 @@
         <v>45</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>1</v>
@@ -1849,7 +2298,7 @@
         <v>46</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
@@ -1869,7 +2318,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -1890,15 +2339,15 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1">
         <v>99</v>
@@ -1916,15 +2365,15 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D6" s="1">
         <v>99</v>
@@ -1942,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1984,13 +2433,13 @@
         <v>45</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>2</v>
@@ -2048,13 +2497,13 @@
         <v>49</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>21</v>
@@ -2096,16 +2545,16 @@
         <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
@@ -2126,16 +2575,16 @@
         <v>150</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
@@ -2156,7 +2605,7 @@
         <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2342,7 +2791,7 @@
         <v>45</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>1</v>
@@ -2403,10 +2852,10 @@
         <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>25</v>
@@ -2432,7 +2881,7 @@
         <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2498,7 +2947,7 @@
         <v>45</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>1</v>
@@ -2571,10 +3020,10 @@
         <v>35</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>36</v>
@@ -2606,7 +3055,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2641,7 +3090,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2713,67 +3162,74 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F03D917-652C-4B95-8311-3563190FC408}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F03D917-652C-4B95-8311-3563190FC408}">
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
-    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.625" customWidth="1"/>
+    <col min="7" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -2793,10 +3249,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>8</v>
@@ -2810,48 +3266,60 @@
       <c r="L2" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N3" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
@@ -2865,31 +3333,37 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" t="s">
         <v>90</v>
       </c>
-      <c r="H4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K4" t="s">
-        <v>146</v>
-      </c>
       <c r="L4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="M4" t="s">
+        <v>134</v>
+      </c>
+      <c r="N4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2900,38 +3374,45 @@
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>148</v>
-      </c>
-      <c r="H5" t="s">
-        <v>151</v>
+      <c r="G5" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12" t="b">
+        <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="J5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K5" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L5" t="s">
-        <v>156</v>
+        <v>119</v>
+      </c>
+      <c r="M5" t="s">
+        <v>136</v>
+      </c>
+      <c r="N5" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K4:K32">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(K4&lt;&gt;"", ISERROR(MATCH(K4, 드롭테이블, 0)))</formula>
+  <conditionalFormatting sqref="M4:M32">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>AND(M4&lt;&gt;"", ISERROR(MATCH(M4, 드롭테이블, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K32 G4:I5 G6:G25 H6:I30" xr:uid="{F42B564B-3756-481A-AB54-7A2D4083505B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M32 J6:J25 I6:I30 I4:J5 K4:K30" xr:uid="{F42B564B-3756-481A-AB54-7A2D4083505B}">
       <formula1>드롭테이블</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2940,7 +3421,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2957,46 +3438,46 @@
         <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -3027,10 +3508,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -3047,14 +3528,14 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D4,E4,F4,G4),_xlfn.TEXTJOIN("/",TRUE,H4,I4,J4,K4),_xlfn.TEXTJOIN("/",TRUE,L4,M4,N4,O4))</f>
-        <v>ITM_MIN_001/100/2/3</v>
+        <v>ITM_MIN_CPR/100/2/3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -3070,14 +3551,14 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D5,E5,F5,G5),_xlfn.TEXTJOIN("/",TRUE,H5,I5,J5,K5),_xlfn.TEXTJOIN("/",TRUE,L5,M5,N5,O5))</f>
-        <v>ITM_MIN_001/50/1/2~ITM_MIN_002/50/1/3</v>
+        <v>ITM_MIN_CPR/50/1/2~ITM_MIN_SIL/50/1/3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -3089,7 +3570,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -3104,14 +3585,14 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D6,E6,F6,G6),_xlfn.TEXTJOIN("/",TRUE,H6,I6,J6,K6),_xlfn.TEXTJOIN("/",TRUE,L6,M6,N6,O6))</f>
-        <v>ITM_MIN_001/33/1/2~ITM_MIN_002/33/1/2~ITM_MIN_003/34/1/1</v>
+        <v>ITM_MIN_CPR/33/1/2~ITM_MIN_SIL/33/1/2~ITM_MIN_GOL/34/1/1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="E6">
         <v>33</v>
@@ -3123,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="I6">
         <v>33</v>
@@ -3135,7 +3616,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="M6">
         <v>34</v>
@@ -3149,14 +3630,14 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ref="C7:C17" si="0">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D7,E7,F7,G7),_xlfn.TEXTJOIN("/",TRUE,H7,I7,J7,K7),_xlfn.TEXTJOIN("/",TRUE,L7,M7,N7,O7))</f>
-        <v>ITM_MIN_001/50/1/2~ITM_MIN_002/50/1/3</v>
+        <v>ITM_MIN_CPR/50/1/2~ITM_MIN_SIL/50/1/3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -3168,7 +3649,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -3183,14 +3664,14 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>ITM_HER_001/100/1/2</v>
+        <v>ITM_HER_JSM/100/1/2</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -3204,14 +3685,14 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>ITM_HER_001/50/1/2~ITM_HER_002/50/1/3</v>
+        <v>ITM_HER_JSM/50/1/2~ITM_HER_JNB/50/1/3</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -3223,7 +3704,7 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="I9">
         <v>50</v>
@@ -3237,14 +3718,14 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>ITM_HER_001/33/1/2~ITM_HER_002/33/1/2~ITM_HER_003/34/1/1</v>
+        <v>ITM_HER_JSM/33/1/2~ITM_HER_JNB/33/1/2~ITM_HER_JNB/34/1/1</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="E10">
         <v>33</v>
@@ -3256,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="I10">
         <v>33</v>
@@ -3268,7 +3749,7 @@
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="M10">
         <v>34</v>
@@ -3282,14 +3763,14 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>ITM_HER_001/50/1/2~ITM_HER_002/50/1/3</v>
+        <v>ITM_HER_JSM/50/1/2~ITM_HER_JNB/50/1/3</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -3301,7 +3782,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="I11">
         <v>50</v>
@@ -3354,32 +3835,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:D7">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>AND(D4&lt;&gt;"", ISERROR(MATCH(D4, 광물id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D11">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>AND(D8&lt;&gt;"", ISERROR(MATCH(D8, 약초id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H7">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>AND(H4&lt;&gt;"", ISERROR(MATCH(H4, 광물id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H11">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND(H8&lt;&gt;"", ISERROR(MATCH(H8, 약초id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L7">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 광물id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L11">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(L8&lt;&gt;"", ISERROR(MATCH(L8, 약초id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Item_Info.xlsx
+++ b/Item_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6ECC08-3F21-4B62-AFC9-F4CAB7F811BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFC6B96-1CA0-4165-AF9A-26B06692F390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UseItem" sheetId="10" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="Tool" sheetId="3" r:id="rId6"/>
     <sheet name="Armor" sheetId="4" r:id="rId7"/>
     <sheet name="ResourceNode" sheetId="6" r:id="rId8"/>
-    <sheet name="DropTable" sheetId="5" r:id="rId9"/>
+    <sheet name="ResourceNode_DropTable" sheetId="5" r:id="rId9"/>
     <sheet name="Condition" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="광물id">OFFSET(Mineral!$B$4,0,0,COUNTA(Mineral!$B:$B),1)</definedName>
-    <definedName name="드롭테이블">OFFSET(DropTable!$B$4,0,0,COUNTA(DropTable!$B:$B),1)</definedName>
-    <definedName name="드롭템id" localSheetId="9">OFFSET(Condition!$B$4,0,0,COUNTA(Condition!$B:$B),1)</definedName>
+    <definedName name="드롭테이블id">OFFSET(ResourceNode_DropTable!$B$4,0,0,COUNTA(ResourceNode_DropTable!$B:$B),1)</definedName>
     <definedName name="드롭템id">OFFSET(DropItem!$B$4,0,0,COUNTA(DropItem!$B:$B),1)</definedName>
     <definedName name="사용템id">OFFSET(UseItem!$B$4,0,0,COUNTA(UseItem!$B:$B),1)</definedName>
     <definedName name="약초id">OFFSET(Herb!$B$4,0,0,COUNTA(Herb!$B:$B),1)</definedName>
+    <definedName name="특수조건id">OFFSET(Condition!$B$4,0,0,COUNTA(Condition!$B:$B),1)</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -815,10 +815,6 @@
     <t>#아이템2</t>
   </si>
   <si>
-    <t>#아이템2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#아이템3</t>
   </si>
   <si>
@@ -1093,6 +1089,9 @@
   <si>
     <t>ITM_HER_RSM</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temporary</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1229,56 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1272,13 +1320,6 @@
       <fill>
         <patternFill>
           <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1675,7 +1716,7 @@
         <v>45</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>74</v>
@@ -1733,22 +1774,22 @@
         <v>17</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>12</v>
@@ -1786,7 +1827,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1801,7 +1842,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1822,10 +1863,10 @@
         <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
@@ -1850,24 +1891,24 @@
         <v>17</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2126,7 +2167,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>60</v>
@@ -2152,10 +2193,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1">
         <v>99</v>
@@ -2178,10 +2219,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="1">
         <v>99</v>
@@ -2318,7 +2359,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -2344,7 +2385,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>93</v>
@@ -2370,7 +2411,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>94</v>
@@ -3165,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F03D917-652C-4B95-8311-3563190FC408}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3190,40 +3231,40 @@
         <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>5</v>
@@ -3249,10 +3290,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>8</v>
@@ -3278,48 +3319,48 @@
         <v>17</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="E3" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
@@ -3349,18 +3390,18 @@
         <v>90</v>
       </c>
       <c r="L4" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="M4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -3381,34 +3422,67 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" t="s">
+        <v>168</v>
+      </c>
+      <c r="M5" t="s">
         <v>135</v>
       </c>
-      <c r="K5" t="s">
-        <v>137</v>
-      </c>
-      <c r="L5" t="s">
-        <v>119</v>
-      </c>
-      <c r="M5" t="s">
-        <v>136</v>
-      </c>
       <c r="N5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="M4:M32">
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>AND(M4&lt;&gt;"", ISERROR(MATCH(M4, 드롭테이블, 0)))</formula>
+  <conditionalFormatting sqref="M6:M32">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>AND(M6&lt;&gt;"", ISERROR(MATCH(M6, 드롭테이블id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M32 J6:J25 I6:I30 I4:J5 K4:K30" xr:uid="{F42B564B-3756-481A-AB54-7A2D4083505B}">
-      <formula1>드롭테이블</formula1>
+  <conditionalFormatting sqref="I4:I5">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>AND(I4&lt;&gt;"", ISERROR(MATCH(I4, 드롭테이블id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>AND(K4&lt;&gt;"", ISERROR(MATCH(K4, 드롭테이블id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND(K5&lt;&gt;"", ISERROR(MATCH(K5, 드롭테이블id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(M4&lt;&gt;"", ISERROR(MATCH(M4, 드롭테이블id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(M5&lt;&gt;"", ISERROR(MATCH(M5, 드롭테이블id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L5">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 특수조건id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K30 J6:J25 I6:I30 I4:J5 M4:M32" xr:uid="{F42B564B-3756-481A-AB54-7A2D4083505B}">
+      <formula1>드롭테이블id</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L6" xr:uid="{77DB5830-F024-494A-B19C-F7AD061F3384}">
+      <formula1>특수조건id</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3420,8 +3494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424FDDD7-8816-4D1B-8E9E-5F9FF8A2A00D}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3447,37 +3521,37 @@
         <v>85</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>95</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="M1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -3558,7 +3632,7 @@
         <v>ITM_MIN_CPR/50/1/2~ITM_MIN_SIL/50/1/3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -3570,7 +3644,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -3592,7 +3666,7 @@
         <v>ITM_MIN_CPR/33/1/2~ITM_MIN_SIL/33/1/2~ITM_MIN_GOL/34/1/1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E6">
         <v>33</v>
@@ -3604,7 +3678,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I6">
         <v>33</v>
@@ -3616,7 +3690,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M6">
         <v>34</v>
@@ -3630,14 +3704,14 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ref="C7:C17" si="0">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D7,E7,F7,G7),_xlfn.TEXTJOIN("/",TRUE,H7,I7,J7,K7),_xlfn.TEXTJOIN("/",TRUE,L7,M7,N7,O7))</f>
         <v>ITM_MIN_CPR/50/1/2~ITM_MIN_SIL/50/1/3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -3649,7 +3723,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -3664,14 +3738,14 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_JSM/100/1/2</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -3685,14 +3759,14 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_JSM/50/1/2~ITM_HER_JNB/50/1/3</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -3704,7 +3778,7 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I9">
         <v>50</v>
@@ -3718,14 +3792,14 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_JSM/33/1/2~ITM_HER_JNB/33/1/2~ITM_HER_JNB/34/1/1</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10">
         <v>33</v>
@@ -3737,7 +3811,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I10">
         <v>33</v>
@@ -3749,7 +3823,7 @@
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M10">
         <v>34</v>
@@ -3763,14 +3837,14 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_JSM/50/1/2~ITM_HER_JNB/50/1/3</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -3782,7 +3856,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I11">
         <v>50</v>
@@ -3835,32 +3909,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:D7">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>AND(D4&lt;&gt;"", ISERROR(MATCH(D4, 광물id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D11">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>AND(D8&lt;&gt;"", ISERROR(MATCH(D8, 약초id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H7">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>AND(H4&lt;&gt;"", ISERROR(MATCH(H4, 광물id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H11">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(H8&lt;&gt;"", ISERROR(MATCH(H8, 약초id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L7">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 광물id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L11">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>AND(L8&lt;&gt;"", ISERROR(MATCH(L8, 약초id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Item_Info.xlsx
+++ b/Item_Info.xlsx
@@ -8,28 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFC6B96-1CA0-4165-AF9A-26B06692F390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACEE46A-7679-40A1-99D9-14877E24924F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UseItem" sheetId="10" r:id="rId1"/>
     <sheet name="DropItem" sheetId="7" r:id="rId2"/>
-    <sheet name="Herb" sheetId="9" r:id="rId3"/>
-    <sheet name="Mineral" sheetId="8" r:id="rId4"/>
-    <sheet name="Potion" sheetId="2" r:id="rId5"/>
-    <sheet name="Tool" sheetId="3" r:id="rId6"/>
-    <sheet name="Armor" sheetId="4" r:id="rId7"/>
-    <sheet name="ResourceNode" sheetId="6" r:id="rId8"/>
-    <sheet name="ResourceNode_DropTable" sheetId="5" r:id="rId9"/>
-    <sheet name="Condition" sheetId="12" r:id="rId10"/>
+    <sheet name="Potion" sheetId="2" r:id="rId3"/>
+    <sheet name="Tool" sheetId="3" r:id="rId4"/>
+    <sheet name="Armor" sheetId="4" r:id="rId5"/>
+    <sheet name="ResourceNode" sheetId="6" r:id="rId6"/>
+    <sheet name="ResourceNode_DropTable" sheetId="5" r:id="rId7"/>
+    <sheet name="Condition" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="광물id">OFFSET(Mineral!$B$4,0,0,COUNTA(Mineral!$B:$B),1)</definedName>
     <definedName name="드롭테이블id">OFFSET(ResourceNode_DropTable!$B$4,0,0,COUNTA(ResourceNode_DropTable!$B:$B),1)</definedName>
-    <definedName name="드롭템id">OFFSET(DropItem!$B$4,0,0,COUNTA(DropItem!$B:$B),1)</definedName>
     <definedName name="사용템id">OFFSET(UseItem!$B$4,0,0,COUNTA(UseItem!$B:$B),1)</definedName>
-    <definedName name="약초id">OFFSET(Herb!$B$4,0,0,COUNTA(Herb!$B:$B),1)</definedName>
+    <definedName name="아이템id">OFFSET(DropItem!$B$4,0,0,COUNTA(DropItem!$B:$B),1)</definedName>
     <definedName name="특수조건id">OFFSET(Condition!$B$4,0,0,COUNTA(Condition!$B:$B),1)</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -447,7 +443,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="169">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1229,56 +1225,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="46">
     <dxf>
       <fill>
         <patternFill>
@@ -1320,6 +1267,304 @@
       <fill>
         <patternFill>
           <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1837,92 +2082,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C04FAAE-BA01-4C13-8221-18036A947D32}">
-  <dimension ref="A1:D4"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A329797-2AD7-4E84-B33C-1A87B89CCD21}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A329797-2AD7-4E84-B33C-1A87B89CCD21}">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2051,6 +2216,162 @@
         <v>92</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1">
+        <v>99</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="1">
+        <v>99</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="1">
+        <v>99</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1">
+        <v>99</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="1">
+        <v>99</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="1">
+        <v>99</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2058,390 +2379,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88FCAF9-52E5-4DBB-B969-4572DE4CAA35}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="1">
-        <v>99</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="1">
-        <v>99</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="1">
-        <v>99</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>30</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F361D76-0463-4865-BC3F-D8EEDCFC9FA7}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="1">
-        <v>99</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="1">
-        <v>99</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G5" s="1">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="1">
-        <v>99</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="1">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D032C6B-C866-4CFC-B063-5F66B309E307}">
   <dimension ref="A1:J18"/>
   <sheetViews>
@@ -2799,7 +2736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190C59BF-9543-48F1-BB0D-FDCF9B553F8D}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -2952,7 +2889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8B7594-854B-40F4-B28F-BD7B5130D053}">
   <dimension ref="A1:L6"/>
   <sheetViews>
@@ -3202,12 +3139,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F03D917-652C-4B95-8311-3563190FC408}">
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3442,39 +3379,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="M6:M32">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>AND(M6&lt;&gt;"", ISERROR(MATCH(M6, 드롭테이블id, 0)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I4:I5">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="45" priority="6">
       <formula>AND(I4&lt;&gt;"", ISERROR(MATCH(I4, 드롭테이블id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="4" priority="5">
+  <conditionalFormatting sqref="K4:K5">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>AND(K4&lt;&gt;"", ISERROR(MATCH(K4, 드롭테이블id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>AND(K5&lt;&gt;"", ISERROR(MATCH(K5, 드롭테이블id, 0)))</formula>
+  <conditionalFormatting sqref="L4:L5">
+    <cfRule type="expression" dxfId="43" priority="1">
+      <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 특수조건id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="M4:M32">
+    <cfRule type="expression" dxfId="42" priority="2">
       <formula>AND(M4&lt;&gt;"", ISERROR(MATCH(M4, 드롭테이블id, 0)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(M5&lt;&gt;"", ISERROR(MATCH(M5, 드롭테이블id, 0)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L5">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 특수조건id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -3490,12 +3412,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424FDDD7-8816-4D1B-8E9E-5F9FF8A2A00D}">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3909,33 +3831,33 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:D7">
-    <cfRule type="expression" dxfId="12" priority="8">
-      <formula>AND(D4&lt;&gt;"", ISERROR(MATCH(D4, 광물id, 0)))</formula>
+    <cfRule type="expression" dxfId="11" priority="8">
+      <formula>AND(D4&lt;&gt;"", ISERROR(MATCH(D4, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D11">
-    <cfRule type="expression" dxfId="11" priority="4">
-      <formula>AND(D8&lt;&gt;"", ISERROR(MATCH(D8, 약초id, 0)))</formula>
+    <cfRule type="expression" dxfId="10" priority="4">
+      <formula>AND(D8&lt;&gt;"", ISERROR(MATCH(D8, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H7">
-    <cfRule type="expression" dxfId="10" priority="6">
-      <formula>AND(H4&lt;&gt;"", ISERROR(MATCH(H4, 광물id, 0)))</formula>
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>AND(H4&lt;&gt;"", ISERROR(MATCH(H4, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H11">
-    <cfRule type="expression" dxfId="9" priority="2">
-      <formula>AND(H8&lt;&gt;"", ISERROR(MATCH(H8, 약초id, 0)))</formula>
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>AND(H8&lt;&gt;"", ISERROR(MATCH(H8, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L7">
-    <cfRule type="expression" dxfId="8" priority="5">
-      <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 광물id, 0)))</formula>
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L11">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>AND(L8&lt;&gt;"", ISERROR(MATCH(L8, 약초id, 0)))</formula>
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>AND(L8&lt;&gt;"", ISERROR(MATCH(L8, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -3951,4 +3873,84 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C04FAAE-BA01-4C13-8221-18036A947D32}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Item_Info.xlsx
+++ b/Item_Info.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACEE46A-7679-40A1-99D9-14877E24924F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2556A7-158D-4052-8A0B-8D14BF86F2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UseItem" sheetId="10" r:id="rId1"/>
-    <sheet name="DropItem" sheetId="7" r:id="rId2"/>
+    <sheet name="Item" sheetId="7" r:id="rId2"/>
     <sheet name="Potion" sheetId="2" r:id="rId3"/>
     <sheet name="Tool" sheetId="3" r:id="rId4"/>
     <sheet name="Armor" sheetId="4" r:id="rId5"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="드롭테이블id">OFFSET(ResourceNode_DropTable!$B$4,0,0,COUNTA(ResourceNode_DropTable!$B:$B),1)</definedName>
     <definedName name="사용템id">OFFSET(UseItem!$B$4,0,0,COUNTA(UseItem!$B:$B),1)</definedName>
-    <definedName name="아이템id">OFFSET(DropItem!$B$4,0,0,COUNTA(DropItem!$B:$B),1)</definedName>
+    <definedName name="아이템id">OFFSET(Item!$B$4,0,0,COUNTA(Item!$B:$B),1)</definedName>
     <definedName name="특수조건id">OFFSET(Condition!$B$4,0,0,COUNTA(Condition!$B:$B),1)</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -1225,277 +1225,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -2086,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A329797-2AD7-4E84-B33C-1A87B89CCD21}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3380,22 +3110,22 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I4:I5">
-    <cfRule type="expression" dxfId="45" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>AND(I4&lt;&gt;"", ISERROR(MATCH(I4, 드롭테이블id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K5">
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>AND(K4&lt;&gt;"", ISERROR(MATCH(K4, 드롭테이블id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5">
-    <cfRule type="expression" dxfId="43" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 특수조건id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M32">
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>AND(M4&lt;&gt;"", ISERROR(MATCH(M4, 드롭테이블id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3416,7 +3146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424FDDD7-8816-4D1B-8E9E-5F9FF8A2A00D}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -3831,32 +3561,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:D7">
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>AND(D4&lt;&gt;"", ISERROR(MATCH(D4, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D11">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>AND(D8&lt;&gt;"", ISERROR(MATCH(D8, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H7">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>AND(H4&lt;&gt;"", ISERROR(MATCH(H4, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H11">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND(H8&lt;&gt;"", ISERROR(MATCH(H8, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L7">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L11">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(L8&lt;&gt;"", ISERROR(MATCH(L8, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Item_Info.xlsx
+++ b/Item_Info.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2556A7-158D-4052-8A0B-8D14BF86F2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE187E5-6B51-4172-BB91-4341330C710B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UseItem" sheetId="10" r:id="rId1"/>
-    <sheet name="Item" sheetId="7" r:id="rId2"/>
-    <sheet name="Potion" sheetId="2" r:id="rId3"/>
-    <sheet name="Tool" sheetId="3" r:id="rId4"/>
-    <sheet name="Armor" sheetId="4" r:id="rId5"/>
+    <sheet name="Item" sheetId="7" r:id="rId1"/>
+    <sheet name="UseItem" sheetId="10" r:id="rId2"/>
+    <sheet name="Weapon" sheetId="3" r:id="rId3"/>
+    <sheet name="Armor" sheetId="4" r:id="rId4"/>
+    <sheet name="Potion" sheetId="2" r:id="rId5"/>
     <sheet name="ResourceNode" sheetId="6" r:id="rId6"/>
     <sheet name="ResourceNode_DropTable" sheetId="5" r:id="rId7"/>
     <sheet name="Condition" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="드롭테이블id">OFFSET(ResourceNode_DropTable!$B$4,0,0,COUNTA(ResourceNode_DropTable!$B:$B),1)</definedName>
-    <definedName name="사용템id">OFFSET(UseItem!$B$4,0,0,COUNTA(UseItem!$B:$B),1)</definedName>
+    <definedName name="사용템id">OFFSET(UseItem!$B$7,0,0,COUNTA(UseItem!$B:$B),1)</definedName>
     <definedName name="아이템id">OFFSET(Item!$B$4,0,0,COUNTA(Item!$B:$B),1)</definedName>
     <definedName name="특수조건id">OFFSET(Condition!$B$4,0,0,COUNTA(Condition!$B:$B),1)</definedName>
   </definedNames>
@@ -54,7 +54,7 @@
     <author>tc={FD595059-0693-49EC-8400-D9EEC9EFBCFD}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{FD595059-0693-49EC-8400-D9EEC9EFBCFD}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FD595059-0693-49EC-8400-D9EEC9EFBCFD}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -443,7 +443,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="191">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -522,44 +522,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Potion_rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Potion_weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채집도구 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>채집능력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tool_id</t>
-  </si>
-  <si>
-    <t>Tool_rank</t>
-  </si>
-  <si>
-    <t>Tool_ability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tool_weight</t>
-  </si>
-  <si>
-    <t>Tool_sell_price</t>
-  </si>
-  <si>
-    <t>Tool_purchase_price</t>
-  </si>
-  <si>
-    <t>Tool_explanation</t>
-  </si>
-  <si>
     <t>방어구 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -579,14 +545,6 @@
     <t>Armor_id</t>
   </si>
   <si>
-    <t>Armor_rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor_atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Armor_hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -595,22 +553,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Armor_weight</t>
-  </si>
-  <si>
-    <t>Armor_sell_price</t>
-  </si>
-  <si>
-    <t>Armor_purchase_price</t>
-  </si>
-  <si>
-    <t>Armor_explanation</t>
-  </si>
-  <si>
-    <t>ITM_DRP_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -623,14 +565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_POT_HEAL_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Potion_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소형 힐링 포션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -639,34 +573,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 무기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_PON_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ITM_ARM_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_SHO_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 망토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본 전신옷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 신발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -683,10 +597,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_POT_BUFF_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소형 공격력 증가 포션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -707,10 +617,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_POT_BUFF_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소형 발소리 감소 포션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -719,10 +625,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_USE_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>돌맹이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -735,26 +637,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tool_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Armor_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 판초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 곡괭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>드롭테이블 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -901,26 +787,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UseItem_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UseItem_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UseItem_maxAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseItem_rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseItem_weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용 거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1049,9 +919,6 @@
   </si>
   <si>
     <t>ITM_MIN_CPR</t>
-  </si>
-  <si>
-    <t>ITM_MIN_CPR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1070,9 +937,6 @@
   </si>
   <si>
     <t>ITM_HER_JSM</t>
-  </si>
-  <si>
-    <t>ITM_HER_JSM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1088,6 +952,238 @@
   </si>
   <si>
     <t>temporary</t>
+  </si>
+  <si>
+    <t>데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseItem_damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_WPN_002</t>
+  </si>
+  <si>
+    <t>ITM_WPN_003</t>
+  </si>
+  <si>
+    <t>구리 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 데이터테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_DRP_SCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_USE_ROC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#아이템 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_MIN_ROC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_USE_CPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_USE_SIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_USE_GOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_USE_JSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_USE_JNB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_USE_RSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_HER_JSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_WPN_002</t>
+  </si>
+  <si>
+    <t>USE_WPN_003</t>
+  </si>
+  <si>
+    <t>USE_HER_JNB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_HER_RSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_MIN_CPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_MIN_SIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_MIN_GOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_MIN_ROC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_WPN_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채집도구 테이블 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1타 배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2타 배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강공격 배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_1st_Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_2nd_Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가드 성능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저스트 가드 성능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_guard_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_strong_Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_justGaurd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은신 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor_hiding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_ARM_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_POT_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_POT_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_POT_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isHeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_POT_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_POT_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_POT_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1191,7 +1287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1214,13 +1310,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1310,23 +1403,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
-<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
-  <bag type="Checkbox"/>
-  <bag type="XFControls">
-    <bagId k="CellControl">0</bagId>
-  </bag>
-  <bag type="XFComplement">
-    <bagId k="XFControls">1</bagId>
-  </bag>
-  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
-    <a k="MappedFeaturePropertyBags">
-      <bagId>2</bagId>
-    </a>
-  </bag>
-</FeaturePropertyBags>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1652,30 +1728,30 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D1" dT="2025-04-13T18:40:10.18" personId="{3E61A1CB-F443-4652-9F2C-6087827B106C}" id="{FD595059-0693-49EC-8400-D9EEC9EFBCFD}">
+  <threadedComment ref="E1" dT="2025-04-13T18:40:10.18" personId="{3E61A1CB-F443-4652-9F2C-6087827B106C}" id="{FD595059-0693-49EC-8400-D9EEC9EFBCFD}">
     <text>사용거리가 0이라면 설치형 아이템</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39B297B-3890-4043-856D-F4A60F5A9BA5}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A329797-2AD7-4E84-B33C-1A87B89CCD21}">
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="70.625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
@@ -1688,25 +1764,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>5</v>
@@ -1729,15 +1805,12 @@
         <v>6</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="8" t="s">
@@ -1749,27 +1822,24 @@
         <v>17</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="10" t="s">
@@ -1778,31 +1848,631 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1">
+        <v>99</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="1">
         <v>10</v>
       </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="1">
+        <v>99</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="1">
+        <v>99</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1">
+        <v>99</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="1">
+        <v>99</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="1">
+        <v>99</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1">
+        <v>99</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1">
+        <v>99</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>100</v>
+      </c>
+      <c r="H12" s="1">
+        <v>200</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>150</v>
+      </c>
+      <c r="H13" s="1">
+        <v>300</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1">
+        <v>200</v>
+      </c>
+      <c r="H14" s="1">
+        <v>400</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>40</v>
+      </c>
+      <c r="H15" s="1">
+        <v>200</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>30</v>
+      </c>
+      <c r="H17" s="1">
+        <v>150</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1">
+        <v>50</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39B297B-3890-4043-856D-F4A60F5A9BA5}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
       <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>5</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>126</v>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="1">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1812,66 +2482,68 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A329797-2AD7-4E84-B33C-1A87B89CCD21}">
-  <dimension ref="A1:I10"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190C59BF-9543-48F1-BB0D-FDCF9B553F8D}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1882,224 +2554,132 @@
         <v>7</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="12">
         <v>10</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="1">
-        <v>99</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.7</v>
+      </c>
+      <c r="G4">
+        <v>1.3</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12">
+        <v>50</v>
+      </c>
+      <c r="J4" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="1">
-        <v>99</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="D5" s="12">
+        <v>15</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.7</v>
+      </c>
+      <c r="G5">
+        <v>1.3</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12">
+        <v>50</v>
+      </c>
+      <c r="J5" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="1">
-        <v>99</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G6" s="1">
+        <v>140</v>
+      </c>
+      <c r="D6" s="12">
         <v>20</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="1">
-        <v>99</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G7" s="1">
-        <v>30</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="1">
-        <v>99</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G8" s="1">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="1">
-        <v>99</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G9" s="1">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="1">
-        <v>99</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="1">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>61</v>
+      <c r="E6" s="12">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0.7</v>
+      </c>
+      <c r="G6">
+        <v>1.3</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>50</v>
+      </c>
+      <c r="J6" s="12">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2108,12 +2688,127 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8B7594-854B-40F4-B28F-BD7B5130D053}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.375" style="12" customWidth="1"/>
+    <col min="6" max="7" width="14.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="12">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>10</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D032C6B-C866-4CFC-B063-5F66B309E307}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2121,9 +2816,9 @@
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
@@ -2138,29 +2833,21 @@
         <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -2169,30 +2856,20 @@
       <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>8</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -2201,120 +2878,86 @@
       <c r="B3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>14</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
         <v>30</v>
       </c>
-      <c r="G4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="1">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1">
-        <v>50</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="E4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
         <v>30</v>
       </c>
-      <c r="G5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1">
-        <v>150</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
         <v>30</v>
       </c>
-      <c r="G6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="1">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1">
-        <v>50</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="E6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -2466,415 +3109,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190C59BF-9543-48F1-BB0D-FDCF9B553F8D}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.25" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1">
-        <v>100</v>
-      </c>
-      <c r="I4" s="1">
-        <v>200</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8B7594-854B-40F4-B28F-BD7B5130D053}">
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>30</v>
-      </c>
-      <c r="K4" s="1">
-        <v>150</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1">
-        <v>40</v>
-      </c>
-      <c r="K5" s="1">
-        <v>200</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>20</v>
-      </c>
-      <c r="K6" s="1">
-        <v>100</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F03D917-652C-4B95-8311-3563190FC408}">
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2898,40 +3138,40 @@
         <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>5</v>
@@ -2957,10 +3197,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>8</v>
@@ -2986,51 +3226,51 @@
         <v>17</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3041,37 +3281,37 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="12" t="b">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="M4" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="N4" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3082,29 +3322,29 @@
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="12" t="b">
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="J5" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="M5" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3147,7 +3387,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3164,46 +3404,46 @@
         <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -3234,10 +3474,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -3254,14 +3494,14 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C4" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D4,E4,F4,G4),_xlfn.TEXTJOIN("/",TRUE,H4,I4,J4,K4),_xlfn.TEXTJOIN("/",TRUE,L4,M4,N4,O4))</f>
         <v>ITM_MIN_CPR/100/2/3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -3277,14 +3517,14 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C5" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D5,E5,F5,G5),_xlfn.TEXTJOIN("/",TRUE,H5,I5,J5,K5),_xlfn.TEXTJOIN("/",TRUE,L5,M5,N5,O5))</f>
         <v>ITM_MIN_CPR/50/1/2~ITM_MIN_SIL/50/1/3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -3296,7 +3536,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -3311,14 +3551,14 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C6" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D6,E6,F6,G6),_xlfn.TEXTJOIN("/",TRUE,H6,I6,J6,K6),_xlfn.TEXTJOIN("/",TRUE,L6,M6,N6,O6))</f>
         <v>ITM_MIN_CPR/33/1/2~ITM_MIN_SIL/33/1/2~ITM_MIN_GOL/34/1/1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="E6">
         <v>33</v>
@@ -3330,7 +3570,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="I6">
         <v>33</v>
@@ -3342,7 +3582,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="M6">
         <v>34</v>
@@ -3356,14 +3596,14 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ref="C7:C17" si="0">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D7,E7,F7,G7),_xlfn.TEXTJOIN("/",TRUE,H7,I7,J7,K7),_xlfn.TEXTJOIN("/",TRUE,L7,M7,N7,O7))</f>
         <v>ITM_MIN_CPR/50/1/2~ITM_MIN_SIL/50/1/3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -3375,7 +3615,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -3390,14 +3630,14 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_JSM/100/1/2</v>
       </c>
-      <c r="D8" t="s">
-        <v>163</v>
+      <c r="D8" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -3411,14 +3651,14 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_JSM/50/1/2~ITM_HER_JNB/50/1/3</v>
       </c>
-      <c r="D9" t="s">
-        <v>163</v>
+      <c r="D9" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -3430,7 +3670,7 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I9">
         <v>50</v>
@@ -3444,14 +3684,14 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_JSM/33/1/2~ITM_HER_JNB/33/1/2~ITM_HER_JNB/34/1/1</v>
       </c>
-      <c r="D10" t="s">
-        <v>163</v>
+      <c r="D10" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="E10">
         <v>33</v>
@@ -3463,7 +3703,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I10">
         <v>33</v>
@@ -3475,7 +3715,7 @@
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="M10">
         <v>34</v>
@@ -3489,14 +3729,14 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_JSM/50/1/2~ITM_HER_JNB/50/1/3</v>
       </c>
-      <c r="D11" t="s">
-        <v>163</v>
+      <c r="D11" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -3508,7 +3748,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I11">
         <v>50</v>
@@ -3560,14 +3800,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D4:D7">
+  <conditionalFormatting sqref="D4:D11">
     <cfRule type="expression" dxfId="5" priority="8">
       <formula>AND(D4&lt;&gt;"", ISERROR(MATCH(D4, 아이템id, 0)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D11">
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>AND(D8&lt;&gt;"", ISERROR(MATCH(D8, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H7">
@@ -3590,15 +3825,18 @@
       <formula>AND(L8&lt;&gt;"", ISERROR(MATCH(L8, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4" xr:uid="{822D99DA-CDD1-48A9-814E-8649AB8547E6}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 D5:D11 H5:H11 L6 L10" xr:uid="{822D99DA-CDD1-48A9-814E-8649AB8547E6}">
       <formula1>아이템id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="D4:D7 H4:H7 L4:L7" xr:uid="{EF120697-70A6-4536-ACD9-CA927FDA268E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="H4 L4:L5 L7" xr:uid="{EF120697-70A6-4536-ACD9-CA927FDA268E}">
       <formula1>광물id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D11 H8:H11 L8:L11" xr:uid="{B3D1218B-899B-4FC9-998E-BB2592CC9EC5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L9 L11" xr:uid="{B3D1218B-899B-4FC9-998E-BB2592CC9EC5}">
       <formula1>약초id</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="D4" xr:uid="{4EB91ED8-59EB-4D4B-BC33-56C8510D9C53}">
+      <formula1>아이템id</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3631,10 +3869,10 @@
         <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
@@ -3659,24 +3897,24 @@
         <v>17</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Item_Info.xlsx
+++ b/Item_Info.xlsx
@@ -8,22 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE187E5-6B51-4172-BB91-4341330C710B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459BED4D-FCFB-45FB-998D-30B8482767D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="7" r:id="rId1"/>
     <sheet name="UseItem" sheetId="10" r:id="rId2"/>
-    <sheet name="Weapon" sheetId="3" r:id="rId3"/>
-    <sheet name="Armor" sheetId="4" r:id="rId4"/>
-    <sheet name="Potion" sheetId="2" r:id="rId5"/>
-    <sheet name="ResourceNode" sheetId="6" r:id="rId6"/>
-    <sheet name="ResourceNode_DropTable" sheetId="5" r:id="rId7"/>
-    <sheet name="Condition" sheetId="12" r:id="rId8"/>
+    <sheet name="DropItem" sheetId="15" r:id="rId3"/>
+    <sheet name="Weapon" sheetId="3" r:id="rId4"/>
+    <sheet name="Armor" sheetId="4" r:id="rId5"/>
+    <sheet name="Backpack" sheetId="13" r:id="rId6"/>
+    <sheet name="Pouch" sheetId="14" r:id="rId7"/>
+    <sheet name="Potion" sheetId="2" r:id="rId8"/>
+    <sheet name="ResourceNode" sheetId="6" r:id="rId9"/>
+    <sheet name="ResourceNode_DropTable" sheetId="5" r:id="rId10"/>
+    <sheet name="Condition" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="드롭테이블id">OFFSET(ResourceNode_DropTable!$B$4,0,0,COUNTA(ResourceNode_DropTable!$B:$B),1)</definedName>
+    <definedName name="사용템id" localSheetId="2">OFFSET(DropItem!$B$7,0,0,COUNTA(DropItem!$B:$B),1)</definedName>
     <definedName name="사용템id">OFFSET(UseItem!$B$7,0,0,COUNTA(UseItem!$B:$B),1)</definedName>
     <definedName name="아이템id">OFFSET(Item!$B$4,0,0,COUNTA(Item!$B:$B),1)</definedName>
     <definedName name="특수조건id">OFFSET(Condition!$B$4,0,0,COUNTA(Condition!$B:$B),1)</definedName>
@@ -443,7 +447,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="246">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -637,10 +641,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Armor_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>드롭테이블 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -992,10 +992,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 데이터테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ITM_DRP_SCR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1004,10 +1000,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_USE_ROC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#아이템 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1016,68 +1008,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_USE_CPR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_USE_SIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_USE_GOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_USE_JSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_USE_JNB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_USE_RSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USE_HER_JSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USE_WPN_002</t>
-  </si>
-  <si>
-    <t>USE_WPN_003</t>
-  </si>
-  <si>
-    <t>USE_HER_JNB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USE_HER_RSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USE_MIN_CPR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USE_MIN_SIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USE_MIN_GOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USE_MIN_ROC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USE_WPN_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>채집도구 테이블 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1142,10 +1072,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USE_ARM_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ITM_POT_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1174,15 +1100,286 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USE_POT_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USE_POT_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USE_POT_003</t>
+    <t>가죽 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 무게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPK_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPK_max_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPK_judge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경량 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">금 곡괭이+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 차징 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_max_charge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_WPN_004</t>
+  </si>
+  <si>
+    <t>ITM_WPN_005</t>
+  </si>
+  <si>
+    <t>공격력 특화 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 특화 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강공격 특화 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_strong_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강공격 이동속도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도 특화 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명력 특화 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_ARM_002</t>
+  </si>
+  <si>
+    <t>ITM_ARM_003</t>
+  </si>
+  <si>
+    <t>ITM_ARM_004</t>
+  </si>
+  <si>
+    <t>최대 무게 특화 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 강화 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_BPK_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_BPK_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 파우치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCH_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCH_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCH_heal_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수 특화 파우치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복량 특화 파우치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_PCH_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_PCH_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형 스테미너 소비 감소 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테미너 소비를 감소시켜주는 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 사용가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_usable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 장착가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_wearable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 등록 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_pouchable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_POT_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 상세정보 DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_HER_JSM</t>
+  </si>
+  <si>
+    <t>PAR_HER_JNB</t>
+  </si>
+  <si>
+    <t>PAR_HER_RSM</t>
+  </si>
+  <si>
+    <t>PAR_MIN_CPR</t>
+  </si>
+  <si>
+    <t>PAR_MIN_SIL</t>
+  </si>
+  <si>
+    <t>PAR_MIN_GOL</t>
+  </si>
+  <si>
+    <t>PAR_MIN_ROC</t>
+  </si>
+  <si>
+    <t>PAR_WPN_001</t>
+  </si>
+  <si>
+    <t>PAR_WPN_002</t>
+  </si>
+  <si>
+    <t>PAR_WPN_003</t>
+  </si>
+  <si>
+    <t>PAR_WPN_004</t>
+  </si>
+  <si>
+    <t>PAR_WPN_005</t>
+  </si>
+  <si>
+    <t>PAR_ARM_001</t>
+  </si>
+  <si>
+    <t>PAR_ARM_002</t>
+  </si>
+  <si>
+    <t>PAR_ARM_003</t>
+  </si>
+  <si>
+    <t>PAR_ARM_004</t>
+  </si>
+  <si>
+    <t>PAR_BPK_001</t>
+  </si>
+  <si>
+    <t>PAR_BPK_002</t>
+  </si>
+  <si>
+    <t>PAR_PCH_001</t>
+  </si>
+  <si>
+    <t>PAR_PCH_002</t>
+  </si>
+  <si>
+    <t>PAR_POT_001</t>
+  </si>
+  <si>
+    <t>PAR_POT_002</t>
+  </si>
+  <si>
+    <t>PAR_POT_003</t>
+  </si>
+  <si>
+    <t>PAR_POT_004</t>
+  </si>
+  <si>
+    <t>Item_PAR_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_DRP_SCR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1287,7 +1484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1310,15 +1507,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -1345,13 +1546,6 @@
       <fill>
         <patternFill>
           <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1736,27 +1930,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A329797-2AD7-4E84-B33C-1A87B89CCD21}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="70.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="9" max="12" width="19.375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -1782,13 +1975,19 @@
         <v>4</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -1813,11 +2012,20 @@
       <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="I2" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="J2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
@@ -1842,13 +2050,22 @@
       <c r="H3" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I3" s="10" t="s">
+        <v>213</v>
+      </c>
       <c r="J3" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>36</v>
@@ -1868,19 +2085,25 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1">
         <v>99</v>
@@ -1897,19 +2120,25 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1">
         <v>99</v>
@@ -1926,16 +2155,22 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I6" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>30</v>
@@ -1955,19 +2190,25 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I7" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1">
         <v>99</v>
@@ -1984,19 +2225,25 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I8" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1">
         <v>99</v>
@@ -2013,16 +2260,22 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I9" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>46</v>
@@ -2042,16 +2295,22 @@
       <c r="H10" s="1">
         <v>5</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I10" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -2071,16 +2330,25 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I11" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -2097,19 +2365,25 @@
       <c r="H12" s="1">
         <v>200</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="I12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -2126,19 +2400,25 @@
       <c r="H13" s="1">
         <v>300</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="I13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -2155,128 +2435,518 @@
       <c r="H14" s="1">
         <v>400</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>8</v>
+      </c>
+      <c r="G15" s="1">
+        <v>200</v>
+      </c>
+      <c r="H15" s="1">
+        <v>400</v>
+      </c>
+      <c r="I15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1">
+        <v>200</v>
+      </c>
+      <c r="H16" s="1">
+        <v>400</v>
+      </c>
+      <c r="I16" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="C17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
         <v>3</v>
       </c>
-      <c r="G15" s="1">
-        <v>40</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="G17" s="1">
+        <v>100</v>
+      </c>
+      <c r="H17" s="1">
         <v>200</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>150</v>
+      </c>
+      <c r="H18" s="1">
+        <v>300</v>
+      </c>
+      <c r="I18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1">
+        <v>200</v>
+      </c>
+      <c r="H19" s="1">
+        <v>400</v>
+      </c>
+      <c r="I19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>200</v>
+      </c>
+      <c r="H20" s="1">
+        <v>400</v>
+      </c>
+      <c r="I20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>100</v>
+      </c>
+      <c r="H21" s="1">
+        <v>200</v>
+      </c>
+      <c r="I21" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>100</v>
+      </c>
+      <c r="H22" s="1">
+        <v>200</v>
+      </c>
+      <c r="I22" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>100</v>
+      </c>
+      <c r="H23" s="1">
+        <v>200</v>
+      </c>
+      <c r="I23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>100</v>
+      </c>
+      <c r="H24" s="1">
+        <v>200</v>
+      </c>
+      <c r="I24" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="1">
         <v>10</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="H25" s="1">
+        <v>50</v>
+      </c>
+      <c r="I25" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
         <v>0.5</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G26" s="1">
+        <v>30</v>
+      </c>
+      <c r="H26" s="1">
+        <v>150</v>
+      </c>
+      <c r="I26" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="1">
         <v>10</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H27" s="1">
         <v>50</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="1">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="I27" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
         <v>0.5</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G28" s="1">
         <v>30</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H28" s="1">
         <v>150</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="1">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="1">
-        <v>10</v>
-      </c>
-      <c r="H18" s="1">
-        <v>50</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="I28" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2284,1105 +2954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39B297B-3890-4043-856D-F4A60F5A9BA5}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="1">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="1">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190C59BF-9543-48F1-BB0D-FDCF9B553F8D}">
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="12">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.7</v>
-      </c>
-      <c r="G4">
-        <v>1.3</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="12">
-        <v>50</v>
-      </c>
-      <c r="J4" s="12">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="12">
-        <v>15</v>
-      </c>
-      <c r="E5" s="12">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.7</v>
-      </c>
-      <c r="G5">
-        <v>1.3</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="12">
-        <v>50</v>
-      </c>
-      <c r="J5" s="12">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="12">
-        <v>20</v>
-      </c>
-      <c r="E6" s="12">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>0.7</v>
-      </c>
-      <c r="G6">
-        <v>1.3</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12">
-        <v>50</v>
-      </c>
-      <c r="J6" s="12">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8B7594-854B-40F4-B28F-BD7B5130D053}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.375" style="12" customWidth="1"/>
-    <col min="6" max="7" width="14.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="12">
-        <v>5</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
-        <v>10</v>
-      </c>
-      <c r="G4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D032C6B-C866-4CFC-B063-5F66B309E307}">
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="1">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F03D917-652C-4B95-8311-3563190FC408}">
-  <dimension ref="A1:N5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" customWidth="1"/>
-    <col min="13" max="13" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>102</v>
-      </c>
-      <c r="J5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" t="s">
-        <v>131</v>
-      </c>
-      <c r="M5" t="s">
-        <v>100</v>
-      </c>
-      <c r="N5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I4:I5">
-    <cfRule type="expression" dxfId="9" priority="6">
-      <formula>AND(I4&lt;&gt;"", ISERROR(MATCH(I4, 드롭테이블id, 0)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K5">
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>AND(K4&lt;&gt;"", ISERROR(MATCH(K4, 드롭테이블id, 0)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L5">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 특수조건id, 0)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M32">
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>AND(M4&lt;&gt;"", ISERROR(MATCH(M4, 드롭테이블id, 0)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K30 J6:J25 I6:I30 I4:J5 M4:M32" xr:uid="{F42B564B-3756-481A-AB54-7A2D4083505B}">
-      <formula1>드롭테이블id</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L6" xr:uid="{77DB5830-F024-494A-B19C-F7AD061F3384}">
-      <formula1>특수조건id</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424FDDD7-8816-4D1B-8E9E-5F9FF8A2A00D}">
   <dimension ref="A1:O17"/>
   <sheetViews>
@@ -3404,46 +2976,46 @@
         <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="H1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="M1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -3474,10 +3046,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -3494,14 +3066,14 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D4,E4,F4,G4),_xlfn.TEXTJOIN("/",TRUE,H4,I4,J4,K4),_xlfn.TEXTJOIN("/",TRUE,L4,M4,N4,O4))</f>
         <v>ITM_MIN_CPR/100/2/3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -3517,14 +3089,14 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D5,E5,F5,G5),_xlfn.TEXTJOIN("/",TRUE,H5,I5,J5,K5),_xlfn.TEXTJOIN("/",TRUE,L5,M5,N5,O5))</f>
         <v>ITM_MIN_CPR/50/1/2~ITM_MIN_SIL/50/1/3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -3536,7 +3108,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -3551,14 +3123,14 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D6,E6,F6,G6),_xlfn.TEXTJOIN("/",TRUE,H6,I6,J6,K6),_xlfn.TEXTJOIN("/",TRUE,L6,M6,N6,O6))</f>
         <v>ITM_MIN_CPR/33/1/2~ITM_MIN_SIL/33/1/2~ITM_MIN_GOL/34/1/1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6">
         <v>33</v>
@@ -3570,7 +3142,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I6">
         <v>33</v>
@@ -3582,7 +3154,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M6">
         <v>34</v>
@@ -3596,14 +3168,14 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ref="C7:C17" si="0">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D7,E7,F7,G7),_xlfn.TEXTJOIN("/",TRUE,H7,I7,J7,K7),_xlfn.TEXTJOIN("/",TRUE,L7,M7,N7,O7))</f>
         <v>ITM_MIN_CPR/50/1/2~ITM_MIN_SIL/50/1/3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -3615,7 +3187,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -3630,14 +3202,14 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_JSM/100/1/2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -3651,14 +3223,14 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_JSM/50/1/2~ITM_HER_JNB/50/1/3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -3670,7 +3242,7 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9">
         <v>50</v>
@@ -3684,14 +3256,14 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_JSM/33/1/2~ITM_HER_JNB/33/1/2~ITM_HER_JNB/34/1/1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10">
         <v>33</v>
@@ -3703,7 +3275,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I10">
         <v>33</v>
@@ -3715,7 +3287,7 @@
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M10">
         <v>34</v>
@@ -3729,14 +3301,14 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_JSM/50/1/2~ITM_HER_JNB/50/1/3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -3748,7 +3320,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I11">
         <v>50</v>
@@ -3801,7 +3373,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:D11">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>AND(D4&lt;&gt;"", ISERROR(MATCH(D4, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3843,7 +3415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C04FAAE-BA01-4C13-8221-18036A947D32}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3869,10 +3441,10 @@
         <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
@@ -3897,28 +3469,2090 @@
         <v>17</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39B297B-3890-4043-856D-F4A60F5A9BA5}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB1C16F-F7EE-488C-95D3-C3AA56FB8A89}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190C59BF-9543-48F1-BB0D-FDCF9B553F8D}">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.5" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.7</v>
+      </c>
+      <c r="G4">
+        <v>1.3</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+      <c r="L4">
+        <v>70</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.7</v>
+      </c>
+      <c r="G5">
+        <v>1.3</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="L5">
+        <v>70</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0.7</v>
+      </c>
+      <c r="G6">
+        <v>1.3</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+      <c r="L6">
+        <v>70</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="15">
+        <v>15</v>
+      </c>
+      <c r="E7" s="15">
+        <v>3</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15">
+        <v>2</v>
+      </c>
+      <c r="J7" s="15">
+        <v>30</v>
+      </c>
+      <c r="K7" s="15">
+        <v>70</v>
+      </c>
+      <c r="L7" s="15">
+        <v>80</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="17">
+        <v>15</v>
+      </c>
+      <c r="E8" s="17">
+        <v>3</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1.333</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="J8" s="17">
+        <v>20</v>
+      </c>
+      <c r="K8" s="17">
+        <v>50</v>
+      </c>
+      <c r="L8" s="17">
+        <v>70</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8B7594-854B-40F4-B28F-BD7B5130D053}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E49322-F639-407B-BE7C-363A9511C10B}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="15">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="15">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F24" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB9C7F3-4CB1-49B1-A80A-5EC57812C7A7}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="15">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F24" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D032C6B-C866-4CFC-B063-5F66B309E307}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="43.75" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1">
+        <v>30</v>
+      </c>
+      <c r="E4" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1">
+        <v>30</v>
+      </c>
+      <c r="E5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30</v>
+      </c>
+      <c r="E6" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="1">
+        <v>30</v>
+      </c>
+      <c r="E7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F03D917-652C-4B95-8311-3563190FC408}">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="I4:I5">
+    <cfRule type="expression" dxfId="8" priority="6">
+      <formula>AND(I4&lt;&gt;"", ISERROR(MATCH(I4, 드롭테이블id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K5">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>AND(K4&lt;&gt;"", ISERROR(MATCH(K4, 드롭테이블id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L5">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 특수조건id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M32">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>AND(M4&lt;&gt;"", ISERROR(MATCH(M4, 드롭테이블id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K30 J6:J25 I6:I30 I4:J5 M4:M32" xr:uid="{F42B564B-3756-481A-AB54-7A2D4083505B}">
+      <formula1>드롭테이블id</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L6" xr:uid="{77DB5830-F024-494A-B19C-F7AD061F3384}">
+      <formula1>특수조건id</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Item_Info.xlsx
+++ b/Item_Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459BED4D-FCFB-45FB-998D-30B8482767D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEA30B9-1D63-42B7-BB7C-B6886F55299F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,7 +447,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="237">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,15 +485,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_id</t>
-  </si>
-  <si>
-    <t>Item_rank</t>
-  </si>
-  <si>
-    <t>Item_weight</t>
-  </si>
-  <si>
     <t>Sell_price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,10 +513,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Potion_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>채집능력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -546,25 +533,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Armor_id</t>
-  </si>
-  <si>
-    <t>Armor_hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor_stamina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -609,10 +581,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Potion_effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본 힐링 포션, 효과는 체력 30 회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -637,26 +605,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_maxAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>드롭테이블 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DropTable_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>드롭테이블 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DropTable_Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#아이템1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -744,10 +700,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ResourceNode_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Resistance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -756,630 +708,647 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DT_destroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_interaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_lastInteraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPR_CON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temporary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던질 수 있는 돌멩이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSM_INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSM_DST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSM_FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSM_CON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥬니퍼베리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로즈마리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPR_CON</t>
+  </si>
+  <si>
+    <t>JSM_DST</t>
+  </si>
+  <si>
+    <t>JSM_CON</t>
+  </si>
+  <si>
+    <t>JSM_FIN</t>
+  </si>
+  <si>
+    <t>JSM_INT</t>
+  </si>
+  <si>
+    <t>채집물 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explaination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 기본 채집물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쟈스민 기본 채집물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨디션 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨디션 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOD_MIN_CPR_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOD_HER_JSM_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨지기 쉬움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFragile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파괴 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDestructible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_MIN_CPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_MIN_SIL</t>
+  </si>
+  <si>
+    <t>ITM_MIN_SIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_MIN_GOL</t>
+  </si>
+  <si>
+    <t>ITM_MIN_GOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_HER_JSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_HER_JNB</t>
+  </si>
+  <si>
+    <t>ITM_HER_JNB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_HER_RSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_WPN_002</t>
+  </si>
+  <si>
+    <t>ITM_WPN_003</t>
+  </si>
+  <si>
+    <t>구리 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_DRP_SCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#아이템 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_MIN_ROC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채집도구 테이블 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1타 배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2타 배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강공격 배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가드 성능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저스트 가드 성능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은신 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_POT_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_POT_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_POT_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isHeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 무게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경량 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">금 곡괭이+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 차징 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_WPN_004</t>
+  </si>
+  <si>
+    <t>ITM_WPN_005</t>
+  </si>
+  <si>
+    <t>공격력 특화 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 특화 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강공격 특화 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강공격 이동속도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도 특화 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명력 특화 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_ARM_002</t>
+  </si>
+  <si>
+    <t>ITM_ARM_003</t>
+  </si>
+  <si>
+    <t>ITM_ARM_004</t>
+  </si>
+  <si>
+    <t>최대 무게 특화 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 강화 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_BPK_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_BPK_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 파우치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수 특화 파우치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복량 특화 파우치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_PCH_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_PCH_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형 스테미너 소비 감소 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테미너 소비를 감소시켜주는 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 사용가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 장착가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 등록 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_POT_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 상세정보 DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_HER_JSM</t>
+  </si>
+  <si>
+    <t>PAR_HER_JNB</t>
+  </si>
+  <si>
+    <t>PAR_HER_RSM</t>
+  </si>
+  <si>
+    <t>PAR_MIN_CPR</t>
+  </si>
+  <si>
+    <t>PAR_MIN_SIL</t>
+  </si>
+  <si>
+    <t>PAR_MIN_GOL</t>
+  </si>
+  <si>
+    <t>PAR_MIN_ROC</t>
+  </si>
+  <si>
+    <t>PAR_WPN_001</t>
+  </si>
+  <si>
+    <t>PAR_WPN_002</t>
+  </si>
+  <si>
+    <t>PAR_WPN_003</t>
+  </si>
+  <si>
+    <t>PAR_WPN_004</t>
+  </si>
+  <si>
+    <t>PAR_WPN_005</t>
+  </si>
+  <si>
+    <t>PAR_ARM_001</t>
+  </si>
+  <si>
+    <t>PAR_ARM_002</t>
+  </si>
+  <si>
+    <t>PAR_ARM_003</t>
+  </si>
+  <si>
+    <t>PAR_ARM_004</t>
+  </si>
+  <si>
+    <t>PAR_BPK_001</t>
+  </si>
+  <si>
+    <t>PAR_BPK_002</t>
+  </si>
+  <si>
+    <t>PAR_PCH_001</t>
+  </si>
+  <si>
+    <t>PAR_PCH_002</t>
+  </si>
+  <si>
+    <t>PAR_POT_001</t>
+  </si>
+  <si>
+    <t>PAR_POT_002</t>
+  </si>
+  <si>
+    <t>PAR_POT_003</t>
+  </si>
+  <si>
+    <t>PAR_POT_004</t>
+  </si>
+  <si>
+    <t>PAR_DRP_SCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1st_Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2nd_Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong_Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_charge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guard_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>justGaurd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isUsable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isWearable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pouchable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stamina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>judge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Gathering_count</t>
-  </si>
-  <si>
-    <t>DT_destroy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_interaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_lastInteraction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPR_CON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temporary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseItem_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseItem_useDistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>던질 수 있는 돌멩이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSM_INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSM_DST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSM_FIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSM_CON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쥬니퍼베리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로즈마리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPR_CON</t>
-  </si>
-  <si>
-    <t>JSM_DST</t>
-  </si>
-  <si>
-    <t>JSM_CON</t>
-  </si>
-  <si>
-    <t>JSM_FIN</t>
-  </si>
-  <si>
-    <t>JSM_INT</t>
-  </si>
-  <si>
-    <t>채집물 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResourceNode_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Explaination</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구리 기본 채집물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쟈스민 기본 채집물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨디션 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨디션 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condition_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condition_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condition_explanation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임시 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더미 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOD_MIN_CPR_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOD_HER_JSM_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깨지기 쉬움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFragile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파괴 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDestructible</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_MIN_CPR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_MIN_SIL</t>
-  </si>
-  <si>
-    <t>ITM_MIN_SIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_MIN_GOL</t>
-  </si>
-  <si>
-    <t>ITM_MIN_GOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_HER_JSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_HER_JNB</t>
-  </si>
-  <si>
-    <t>ITM_HER_JNB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_HER_RSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temporary</t>
-  </si>
-  <si>
-    <t>데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseItem_damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_ability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_WPN_002</t>
-  </si>
-  <si>
-    <t>ITM_WPN_003</t>
-  </si>
-  <si>
-    <t>구리 곡괭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은 곡괭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금 곡괭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_DRP_SCR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소리 범위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#아이템 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_MIN_ROC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채집도구 테이블 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구리 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1타 배율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2타 배율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강공격 배율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_1st_Ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_2nd_Ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가드 성능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저스트 가드 성능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_guard_ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_strong_Ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_justGaurd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은신 레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor_speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor_hiding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_POT_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_POT_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_POT_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isHeal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가죽 가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 무게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPK_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPK_max_weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPK_judge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경량 가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철 곡괭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">금 곡괭이+ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 차징 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_max_charge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_WPN_004</t>
-  </si>
-  <si>
-    <t>ITM_WPN_005</t>
-  </si>
-  <si>
-    <t>공격력 특화 곡괭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어 특화 곡괭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강공격 특화 곡괭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_strong_speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강공격 이동속도 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도 특화 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생명력 특화 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_ARM_002</t>
-  </si>
-  <si>
-    <t>ITM_ARM_003</t>
-  </si>
-  <si>
-    <t>ITM_ARM_004</t>
-  </si>
-  <si>
-    <t>최대 무게 특화 가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피 강화 가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_BPK_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_BPK_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가죽 파우치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파우치 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복량 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파우치 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가방 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCH_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCH_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCH_heal_buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수 특화 파우치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복량 특화 파우치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_PCH_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_PCH_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소형 스테미너 소비 감소 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테미너 소비를 감소시켜주는 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 사용가능 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_usable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 장착가능 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_wearable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파우치 등록 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_pouchable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_POT_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 상세정보 DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAR_HER_JSM</t>
-  </si>
-  <si>
-    <t>PAR_HER_JNB</t>
-  </si>
-  <si>
-    <t>PAR_HER_RSM</t>
-  </si>
-  <si>
-    <t>PAR_MIN_CPR</t>
-  </si>
-  <si>
-    <t>PAR_MIN_SIL</t>
-  </si>
-  <si>
-    <t>PAR_MIN_GOL</t>
-  </si>
-  <si>
-    <t>PAR_MIN_ROC</t>
-  </si>
-  <si>
-    <t>PAR_WPN_001</t>
-  </si>
-  <si>
-    <t>PAR_WPN_002</t>
-  </si>
-  <si>
-    <t>PAR_WPN_003</t>
-  </si>
-  <si>
-    <t>PAR_WPN_004</t>
-  </si>
-  <si>
-    <t>PAR_WPN_005</t>
-  </si>
-  <si>
-    <t>PAR_ARM_001</t>
-  </si>
-  <si>
-    <t>PAR_ARM_002</t>
-  </si>
-  <si>
-    <t>PAR_ARM_003</t>
-  </si>
-  <si>
-    <t>PAR_ARM_004</t>
-  </si>
-  <si>
-    <t>PAR_BPK_001</t>
-  </si>
-  <si>
-    <t>PAR_BPK_002</t>
-  </si>
-  <si>
-    <t>PAR_PCH_001</t>
-  </si>
-  <si>
-    <t>PAR_PCH_002</t>
-  </si>
-  <si>
-    <t>PAR_POT_001</t>
-  </si>
-  <si>
-    <t>PAR_POT_002</t>
-  </si>
-  <si>
-    <t>PAR_POT_003</t>
-  </si>
-  <si>
-    <t>PAR_POT_004</t>
-  </si>
-  <si>
-    <t>Item_PAR_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAR_DRP_SCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quest_level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1484,7 +1453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1507,14 +1476,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1933,7 +1898,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1951,16 +1916,16 @@
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>1</v>
@@ -1975,21 +1940,21 @@
         <v>4</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>8</v>
@@ -2013,13 +1978,13 @@
         <v>6</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>8</v>
@@ -2027,48 +1992,48 @@
     </row>
     <row r="3" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="I3" s="10" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1">
         <v>99</v>
@@ -2085,25 +2050,25 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="15" t="b">
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1">
         <v>99</v>
@@ -2120,25 +2085,25 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15" t="b">
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1">
         <v>99</v>
@@ -2155,25 +2120,25 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15" t="b">
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
         <v>99</v>
@@ -2190,25 +2155,25 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15" t="b">
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1">
         <v>99</v>
@@ -2225,25 +2190,25 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="15" t="b">
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1">
         <v>99</v>
@@ -2260,25 +2225,25 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="15" t="b">
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1">
         <v>99</v>
@@ -2295,25 +2260,25 @@
       <c r="H10" s="1">
         <v>5</v>
       </c>
-      <c r="I10" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="15" t="b">
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1">
         <v>99</v>
@@ -2330,25 +2295,25 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="15" t="b">
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -2365,25 +2330,25 @@
       <c r="H12" s="1">
         <v>200</v>
       </c>
-      <c r="I12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" s="15" t="b">
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
         <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -2400,25 +2365,25 @@
       <c r="H13" s="1">
         <v>300</v>
       </c>
-      <c r="I13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" s="15" t="b">
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
         <v>0</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -2435,25 +2400,25 @@
       <c r="H14" s="1">
         <v>400</v>
       </c>
-      <c r="I14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" s="15" t="b">
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
         <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -2470,25 +2435,25 @@
       <c r="H15" s="1">
         <v>400</v>
       </c>
-      <c r="I15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" s="15" t="b">
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -2505,25 +2470,25 @@
       <c r="H16" s="1">
         <v>400</v>
       </c>
-      <c r="I16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" s="15" t="b">
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
         <v>0</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -2540,25 +2505,25 @@
       <c r="H17" s="1">
         <v>200</v>
       </c>
-      <c r="I17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" s="15" t="b">
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
         <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -2575,25 +2540,25 @@
       <c r="H18" s="1">
         <v>300</v>
       </c>
-      <c r="I18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" s="15" t="b">
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
         <v>0</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -2610,25 +2575,25 @@
       <c r="H19" s="1">
         <v>400</v>
       </c>
-      <c r="I19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" s="15" t="b">
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
         <v>0</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -2645,25 +2610,25 @@
       <c r="H20" s="1">
         <v>400</v>
       </c>
-      <c r="I20" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" s="15" t="b">
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
         <v>0</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -2680,25 +2645,25 @@
       <c r="H21" s="1">
         <v>200</v>
       </c>
-      <c r="I21" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" s="15" t="b">
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
         <v>0</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -2715,25 +2680,25 @@
       <c r="H22" s="1">
         <v>200</v>
       </c>
-      <c r="I22" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" s="15" t="b">
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -2750,25 +2715,25 @@
       <c r="H23" s="1">
         <v>200</v>
       </c>
-      <c r="I23" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" s="15" t="b">
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
         <v>0</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -2785,25 +2750,25 @@
       <c r="H24" s="1">
         <v>200</v>
       </c>
-      <c r="I24" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24" s="15" t="b">
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
         <v>0</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1">
         <v>5</v>
@@ -2820,25 +2785,25 @@
       <c r="H25" s="1">
         <v>50</v>
       </c>
-      <c r="I25" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" s="15" t="b">
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
         <v>1</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D26" s="1">
         <v>5</v>
@@ -2855,25 +2820,25 @@
       <c r="H26" s="1">
         <v>150</v>
       </c>
-      <c r="I26" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" s="15" t="b">
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
         <v>1</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D27" s="1">
         <v>5</v>
@@ -2890,25 +2855,25 @@
       <c r="H27" s="1">
         <v>50</v>
       </c>
-      <c r="I27" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" s="15" t="b">
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
         <v>1</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
@@ -2925,28 +2890,28 @@
       <c r="H28" s="1">
         <v>150</v>
       </c>
-      <c r="I28" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" s="15" t="b">
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
         <v>1</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2973,54 +2938,54 @@
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>8</v>
@@ -3043,13 +3008,13 @@
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -3066,14 +3031,14 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C4" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D4,E4,F4,G4),_xlfn.TEXTJOIN("/",TRUE,H4,I4,J4,K4),_xlfn.TEXTJOIN("/",TRUE,L4,M4,N4,O4))</f>
         <v>ITM_MIN_CPR/100/2/3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -3089,14 +3054,14 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C5" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D5,E5,F5,G5),_xlfn.TEXTJOIN("/",TRUE,H5,I5,J5,K5),_xlfn.TEXTJOIN("/",TRUE,L5,M5,N5,O5))</f>
         <v>ITM_MIN_CPR/50/1/2~ITM_MIN_SIL/50/1/3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -3108,7 +3073,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -3123,14 +3088,14 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C6" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D6,E6,F6,G6),_xlfn.TEXTJOIN("/",TRUE,H6,I6,J6,K6),_xlfn.TEXTJOIN("/",TRUE,L6,M6,N6,O6))</f>
         <v>ITM_MIN_CPR/33/1/2~ITM_MIN_SIL/33/1/2~ITM_MIN_GOL/34/1/1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>33</v>
@@ -3142,7 +3107,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="I6">
         <v>33</v>
@@ -3154,7 +3119,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="M6">
         <v>34</v>
@@ -3168,14 +3133,14 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ref="C7:C17" si="0">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D7,E7,F7,G7),_xlfn.TEXTJOIN("/",TRUE,H7,I7,J7,K7),_xlfn.TEXTJOIN("/",TRUE,L7,M7,N7,O7))</f>
         <v>ITM_MIN_CPR/50/1/2~ITM_MIN_SIL/50/1/3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -3187,7 +3152,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -3202,14 +3167,14 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_JSM/100/1/2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -3223,14 +3188,14 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_JSM/50/1/2~ITM_HER_JNB/50/1/3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -3242,7 +3207,7 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="I9">
         <v>50</v>
@@ -3256,14 +3221,14 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_JSM/33/1/2~ITM_HER_JNB/33/1/2~ITM_HER_JNB/34/1/1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E10">
         <v>33</v>
@@ -3275,7 +3240,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="I10">
         <v>33</v>
@@ -3287,7 +3252,7 @@
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="M10">
         <v>34</v>
@@ -3301,14 +3266,14 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_JSM/50/1/2~ITM_HER_JNB/50/1/3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -3320,7 +3285,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="I11">
         <v>50</v>
@@ -3420,7 +3385,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3438,13 +3403,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
@@ -3452,7 +3417,7 @@
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>8</v>
@@ -3466,27 +3431,27 @@
     </row>
     <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3500,7 +3465,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3516,22 +3481,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -3539,7 +3504,7 @@
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>8</v>
@@ -3559,30 +3524,30 @@
     </row>
     <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -3594,15 +3559,15 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -3614,15 +3579,15 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -3634,15 +3599,15 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
@@ -3654,15 +3619,15 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1">
         <v>11</v>
@@ -3674,15 +3639,15 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1">
         <v>12</v>
@@ -3694,15 +3659,15 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1">
         <v>13</v>
@@ -3714,7 +3679,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3729,7 +3694,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3743,13 +3708,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
@@ -3757,7 +3722,7 @@
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>8</v>
@@ -3768,24 +3733,24 @@
     </row>
     <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3796,10 +3761,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190C59BF-9543-48F1-BB0D-FDCF9B553F8D}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:M8"/>
+      <selection activeCell="D1" sqref="D1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3807,62 +3772,66 @@
     <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.5" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="21.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.5" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>152</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>8</v>
@@ -3874,7 +3843,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>7</v>
@@ -3895,456 +3864,497 @@
         <v>7</v>
       </c>
       <c r="M2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>140</v>
+        <v>236</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.7</v>
+      </c>
+      <c r="H4">
+        <v>1.3</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>30</v>
+      </c>
+      <c r="L4">
+        <v>50</v>
+      </c>
+      <c r="M4">
+        <v>70</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0.7</v>
+      </c>
+      <c r="H5">
+        <v>1.3</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>50</v>
+      </c>
+      <c r="M5">
+        <v>70</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0.7</v>
+      </c>
+      <c r="H6">
+        <v>1.3</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <v>50</v>
+      </c>
+      <c r="M6">
+        <v>70</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0.7</v>
+      </c>
+      <c r="H7">
+        <v>1.3</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>30</v>
+      </c>
+      <c r="L7">
+        <v>70</v>
+      </c>
+      <c r="M7">
+        <v>80</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G3" s="10" t="s">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0.7</v>
+      </c>
+      <c r="H8">
+        <v>1.3</v>
+      </c>
+      <c r="I8">
+        <v>1.333</v>
+      </c>
+      <c r="J8">
+        <v>1.5</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+      <c r="M8">
+        <v>70</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.7</v>
-      </c>
-      <c r="G4">
-        <v>1.3</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>30</v>
-      </c>
-      <c r="K4">
-        <v>50</v>
-      </c>
-      <c r="L4">
-        <v>70</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.7</v>
-      </c>
-      <c r="G5">
-        <v>1.3</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>30</v>
-      </c>
-      <c r="K5">
-        <v>50</v>
-      </c>
-      <c r="L5">
-        <v>70</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>0.7</v>
-      </c>
-      <c r="G6">
-        <v>1.3</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>30</v>
-      </c>
-      <c r="K6">
-        <v>50</v>
-      </c>
-      <c r="L6">
-        <v>70</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="15">
-        <v>15</v>
-      </c>
-      <c r="E7" s="15">
-        <v>3</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="G7" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="H7" s="15">
-        <v>1</v>
-      </c>
-      <c r="I7" s="15">
-        <v>2</v>
-      </c>
-      <c r="J7" s="15">
-        <v>30</v>
-      </c>
-      <c r="K7" s="15">
-        <v>70</v>
-      </c>
-      <c r="L7" s="15">
-        <v>80</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="17">
-        <v>15</v>
-      </c>
-      <c r="E8" s="17">
-        <v>3</v>
-      </c>
-      <c r="F8" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="G8" s="17">
-        <v>1.3</v>
-      </c>
-      <c r="H8" s="17">
-        <v>1.333</v>
-      </c>
-      <c r="I8" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="J8" s="17">
-        <v>20</v>
-      </c>
-      <c r="K8" s="17">
-        <v>50</v>
-      </c>
-      <c r="L8" s="17">
-        <v>70</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4354,187 +4364,208 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8B7594-854B-40F4-B28F-BD7B5130D053}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="7" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.375" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>23</v>
+        <v>119</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="13">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="13">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6">
-        <v>30</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7">
+      <c r="D7" s="13">
+        <v>4</v>
+      </c>
+      <c r="E7">
         <v>50</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
       <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>190</v>
+      <c r="I7" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4545,185 +4576,203 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E49322-F639-407B-BE7C-363A9511C10B}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G5"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>169</v>
+        <v>119</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>172</v>
+        <v>138</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>7</v>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>117</v>
+      <c r="F2" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>171</v>
+        <v>204</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="15">
-        <v>50</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="15">
-        <v>35</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F24" s="16"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D6"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D7"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4733,169 +4782,187 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB9C7F3-4CB1-49B1-A80A-5EC57812C7A7}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>199</v>
+        <v>119</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="14" t="s">
         <v>204</v>
       </c>
+      <c r="D3" s="10" t="s">
+        <v>236</v>
+      </c>
       <c r="E3" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" s="15">
+        <v>162</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F24" s="16"/>
+      <c r="G5" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D7"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4908,7 +4975,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4926,22 +4993,22 @@
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -4952,7 +5019,7 @@
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>8</v>
@@ -4962,10 +5029,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>8</v>
@@ -4976,23 +5043,23 @@
     </row>
     <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -5001,22 +5068,22 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
         <v>30</v>
       </c>
-      <c r="E4" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16" t="b">
+      <c r="E4" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="b">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -5025,22 +5092,22 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1">
         <v>30</v>
       </c>
-      <c r="E5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16" t="b">
+      <c r="E5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -5049,22 +5116,22 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1">
         <v>30</v>
       </c>
-      <c r="E6" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16" t="b">
+      <c r="E6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -5073,22 +5140,22 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="D7" s="1">
         <v>30</v>
       </c>
-      <c r="E7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16" t="b">
+      <c r="E7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -5099,8 +5166,8 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -5111,8 +5178,8 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -5123,8 +5190,8 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -5135,8 +5202,8 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -5147,8 +5214,8 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -5159,8 +5226,8 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -5171,8 +5238,8 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -5183,8 +5250,8 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -5195,8 +5262,8 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -5207,8 +5274,8 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -5219,64 +5286,64 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5289,7 +5356,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5310,43 +5377,43 @@
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>5</v>
@@ -5354,7 +5421,7 @@
     </row>
     <row r="2" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>8</v>
@@ -5372,10 +5439,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>8</v>
@@ -5398,54 +5465,54 @@
     </row>
     <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5463,30 +5530,30 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="M4" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="N4" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5504,22 +5571,22 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="M5" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="N5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Item_Info.xlsx
+++ b/Item_Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEA30B9-1D63-42B7-BB7C-B6886F55299F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5F988C-BF33-4183-A32F-89D79F86991A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName name="드롭테이블id">OFFSET(ResourceNode_DropTable!$B$4,0,0,COUNTA(ResourceNode_DropTable!$B:$B),1)</definedName>
     <definedName name="사용템id" localSheetId="2">OFFSET(DropItem!$B$7,0,0,COUNTA(DropItem!$B:$B),1)</definedName>
-    <definedName name="사용템id">OFFSET(UseItem!$B$7,0,0,COUNTA(UseItem!$B:$B),1)</definedName>
+    <definedName name="사용템id">OFFSET(UseItem!$B$10,0,0,COUNTA(UseItem!$B:$B),1)</definedName>
     <definedName name="아이템id">OFFSET(Item!$B$4,0,0,COUNTA(Item!$B:$B),1)</definedName>
     <definedName name="특수조건id">OFFSET(Condition!$B$4,0,0,COUNTA(Condition!$B:$B),1)</definedName>
   </definedNames>
@@ -447,7 +447,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="259">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -597,10 +597,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>돌맹이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 최대개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -642,14 +638,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#아이템2</t>
   </si>
   <si>
@@ -760,14 +748,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쥬니퍼베리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로즈마리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CPR_CON</t>
   </si>
   <si>
@@ -850,17 +830,9 @@
     <t>ITM_MIN_SIL</t>
   </si>
   <si>
-    <t>ITM_MIN_SIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ITM_MIN_GOL</t>
   </si>
   <si>
-    <t>ITM_MIN_GOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ITM_HER_JSM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -868,14 +840,6 @@
     <t>ITM_HER_JNB</t>
   </si>
   <si>
-    <t>ITM_HER_JNB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_HER_RSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>temporary</t>
   </si>
   <si>
@@ -901,10 +865,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_DRP_SCR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소리 범위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -913,10 +873,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_MIN_ROC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>채집도구 테이블 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1140,27 +1096,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PAR_HER_JSM</t>
-  </si>
-  <si>
-    <t>PAR_HER_JNB</t>
-  </si>
-  <si>
-    <t>PAR_HER_RSM</t>
-  </si>
-  <si>
-    <t>PAR_MIN_CPR</t>
-  </si>
-  <si>
-    <t>PAR_MIN_SIL</t>
-  </si>
-  <si>
-    <t>PAR_MIN_GOL</t>
-  </si>
-  <si>
-    <t>PAR_MIN_ROC</t>
-  </si>
-  <si>
     <t>PAR_WPN_001</t>
   </si>
   <si>
@@ -1350,13 +1285,171 @@
   <si>
     <t>quest_level</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적혈초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청로과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복 hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배부름 디버프 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복 유지 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal_duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff_duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_HER_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_HER_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_HER_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_MIN_004</t>
+  </si>
+  <si>
+    <t>PAR_MIN_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_HER_004</t>
+  </si>
+  <si>
+    <t>PAR_HER_005</t>
+  </si>
+  <si>
+    <t>PAR_HER_006</t>
+  </si>
+  <si>
+    <t>안개꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끈끈이풀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>폭탄꽃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페일베리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_MIN_002</t>
+  </si>
+  <si>
+    <t>PAR_MIN_003</t>
+  </si>
+  <si>
+    <t>녹철석</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잔피석 </t>
+  </si>
+  <si>
+    <t>이슬의 흔적</t>
+  </si>
+  <si>
+    <t>버밀리온</t>
+  </si>
+  <si>
+    <t>레조나이트</t>
+  </si>
+  <si>
+    <t>금광석</t>
+  </si>
+  <si>
+    <t xml:space="preserve">라멜라이트 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">블러다이트 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">폭쇄석 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">별의 눈물 </t>
+  </si>
+  <si>
+    <t>PAR_MIN_005</t>
+  </si>
+  <si>
+    <t>PAR_MIN_006</t>
+  </si>
+  <si>
+    <t>PAR_MIN_007</t>
+  </si>
+  <si>
+    <t>PAR_MIN_008</t>
+  </si>
+  <si>
+    <t>PAR_MIN_009</t>
+  </si>
+  <si>
+    <t>PAR_MIN_010</t>
+  </si>
+  <si>
+    <t>PAR_MIN_011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1398,6 +1491,22 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1453,7 +1562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1479,7 +1588,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1895,10 +2005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A329797-2AD7-4E84-B33C-1A87B89CCD21}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1925,7 +2035,7 @@
         <v>21</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>1</v>
@@ -1940,16 +2050,16 @@
         <v>4</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -1978,13 +2088,13 @@
         <v>6</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>8</v>
@@ -1995,19 +2105,19 @@
         <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>9</v>
@@ -2016,24 +2126,24 @@
         <v>10</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="D4" s="1">
         <v>99</v>
@@ -2042,33 +2152,30 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G4" s="1">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="D5" s="1">
         <v>99</v>
@@ -2080,10 +2187,10 @@
         <v>0.2</v>
       </c>
       <c r="G5" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -2093,33 +2200,30 @@
       </c>
       <c r="K5" t="b">
         <v>1</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="D6" s="1">
         <v>99</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G6" s="1">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1">
         <v>30</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
@@ -2128,32 +2232,29 @@
       </c>
       <c r="K6" t="b">
         <v>1</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="D7" s="1">
         <v>99</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
         <v>0.3</v>
       </c>
       <c r="G7" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -2163,32 +2264,29 @@
       </c>
       <c r="K7" t="b">
         <v>1</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>234</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="D8" s="1">
         <v>99</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G8" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -2198,32 +2296,29 @@
       </c>
       <c r="K8" t="b">
         <v>1</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>235</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="D9" s="1">
         <v>99</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1">
         <v>0.5</v>
       </c>
       <c r="G9" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -2233,17 +2328,14 @@
       </c>
       <c r="K9" t="b">
         <v>1</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1">
         <v>99</v>
@@ -2252,13 +2344,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -2268,17 +2360,14 @@
       </c>
       <c r="K10" t="b">
         <v>1</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>240</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>242</v>
       </c>
       <c r="D11" s="1">
         <v>99</v>
@@ -2287,348 +2376,318 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G11" s="1">
-        <v>10</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>241</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>243</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="G12" s="1">
-        <v>100</v>
-      </c>
-      <c r="H12" s="1">
-        <v>200</v>
+        <v>10</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>185</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>115</v>
+        <v>231</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>244</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>150</v>
-      </c>
-      <c r="H13" s="1">
-        <v>300</v>
+        <v>500</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>116</v>
+        <v>252</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>245</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
       </c>
       <c r="F14" s="1">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="G14" s="1">
-        <v>200</v>
-      </c>
-      <c r="H14" s="1">
-        <v>400</v>
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>187</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>141</v>
+        <v>253</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
       </c>
       <c r="F15" s="1">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="G15" s="1">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="H15" s="1">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>142</v>
+        <v>254</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>247</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
       </c>
       <c r="F16" s="1">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="G16" s="1">
-        <v>200</v>
-      </c>
-      <c r="H16" s="1">
-        <v>400</v>
+        <v>17</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>122</v>
+        <v>255</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>248</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="G17" s="1">
-        <v>100</v>
-      </c>
-      <c r="H17" s="1">
-        <v>200</v>
+        <v>20</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>144</v>
+        <v>256</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" s="1">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="G18" s="1">
-        <v>150</v>
-      </c>
-      <c r="H18" s="1">
-        <v>300</v>
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>191</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>145</v>
+        <v>257</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="1">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="G19" s="1">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="H19" s="1">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>146</v>
+        <v>258</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>251</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>200</v>
-      </c>
-      <c r="H20" s="1">
-        <v>400</v>
+        <v>1000</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>193</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -2637,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" s="1">
         <v>100</v>
@@ -2655,15 +2714,15 @@
         <v>0</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -2672,13 +2731,13 @@
         <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G22" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H22" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -2690,228 +2749,533 @@
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1">
+        <v>200</v>
+      </c>
+      <c r="H23" s="1">
+        <v>400</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1">
-        <v>100</v>
-      </c>
-      <c r="H23" s="1">
-        <v>200</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>8</v>
+      </c>
+      <c r="G24" s="1">
+        <v>200</v>
+      </c>
+      <c r="H24" s="1">
+        <v>400</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>3</v>
-      </c>
-      <c r="G24" s="1">
-        <v>100</v>
-      </c>
-      <c r="H24" s="1">
-        <v>200</v>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="D25" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="1">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="G25" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H25" s="1">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="D26" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H26" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="D27" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G27" s="1">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="H27" s="1">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4</v>
+      </c>
+      <c r="G28" s="1">
+        <v>200</v>
+      </c>
+      <c r="H28" s="1">
+        <v>400</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>200</v>
+      </c>
+      <c r="H29" s="1">
+        <v>400</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1">
+        <v>100</v>
+      </c>
+      <c r="H30" s="1">
+        <v>200</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="1">
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1">
+        <v>100</v>
+      </c>
+      <c r="H31" s="1">
+        <v>200</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1">
+        <v>100</v>
+      </c>
+      <c r="H32" s="1">
+        <v>200</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1">
+        <v>100</v>
+      </c>
+      <c r="H33" s="1">
+        <v>200</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="1">
         <v>5</v>
       </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
         <v>0.5</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G34" s="1">
+        <v>10</v>
+      </c>
+      <c r="H34" s="1">
+        <v>50</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="1">
         <v>30</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H35" s="1">
         <v>150</v>
       </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>10</v>
+      </c>
+      <c r="H36" s="1">
+        <v>50</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>30</v>
+      </c>
+      <c r="H37" s="1">
+        <v>150</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2941,46 +3305,46 @@
         <v>12</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -3011,10 +3375,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -3031,14 +3395,14 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D4,E4,F4,G4),_xlfn.TEXTJOIN("/",TRUE,H4,I4,J4,K4),_xlfn.TEXTJOIN("/",TRUE,L4,M4,N4,O4))</f>
         <v>ITM_MIN_CPR/100/2/3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -3054,14 +3418,14 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D5,E5,F5,G5),_xlfn.TEXTJOIN("/",TRUE,H5,I5,J5,K5),_xlfn.TEXTJOIN("/",TRUE,L5,M5,N5,O5))</f>
         <v>ITM_MIN_CPR/50/1/2~ITM_MIN_SIL/50/1/3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -3073,7 +3437,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -3088,14 +3452,14 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D6,E6,F6,G6),_xlfn.TEXTJOIN("/",TRUE,H6,I6,J6,K6),_xlfn.TEXTJOIN("/",TRUE,L6,M6,N6,O6))</f>
         <v>ITM_MIN_CPR/33/1/2~ITM_MIN_SIL/33/1/2~ITM_MIN_GOL/34/1/1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>33</v>
@@ -3107,7 +3471,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I6">
         <v>33</v>
@@ -3119,7 +3483,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M6">
         <v>34</v>
@@ -3133,14 +3497,14 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ref="C7:C17" si="0">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D7,E7,F7,G7),_xlfn.TEXTJOIN("/",TRUE,H7,I7,J7,K7),_xlfn.TEXTJOIN("/",TRUE,L7,M7,N7,O7))</f>
         <v>ITM_MIN_CPR/50/1/2~ITM_MIN_SIL/50/1/3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -3152,7 +3516,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -3167,14 +3531,14 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_JSM/100/1/2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -3188,14 +3552,14 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_JSM/50/1/2~ITM_HER_JNB/50/1/3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -3207,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I9">
         <v>50</v>
@@ -3221,14 +3585,14 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_JSM/33/1/2~ITM_HER_JNB/33/1/2~ITM_HER_JNB/34/1/1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E10">
         <v>33</v>
@@ -3240,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I10">
         <v>33</v>
@@ -3252,7 +3616,7 @@
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M10">
         <v>34</v>
@@ -3266,14 +3630,14 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>ITM_HER_JSM/50/1/2~ITM_HER_JNB/50/1/3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -3285,7 +3649,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I11">
         <v>50</v>
@@ -3406,10 +3770,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
@@ -3434,24 +3798,24 @@
         <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3462,10 +3826,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39B297B-3890-4043-856D-F4A60F5A9BA5}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C4" sqref="C4:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3475,11 +3839,12 @@
     <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="7" max="9" width="20.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="61.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -3487,22 +3852,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
@@ -3519,158 +3893,221 @@
         <v>7</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5</v>
+      <c r="E4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
+        <v>60</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
       </c>
       <c r="F7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="D8" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
       </c>
       <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
         <v>5</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="1">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
         <v>5</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="1">
-        <v>13</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
@@ -3678,8 +4115,187 @@
       <c r="F10" s="1">
         <v>5</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>74</v>
+      <c r="J10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="1">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" s="1">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="1">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="1">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" s="1">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3714,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
@@ -3736,7 +4352,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>11</v>
@@ -3744,13 +4360,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3790,13 +4406,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
@@ -3805,25 +4421,25 @@
         <v>16</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>5</v>
@@ -3875,37 +4491,37 @@
         <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>11</v>
@@ -3913,10 +4529,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3949,15 +4565,15 @@
         <v>70</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -3990,15 +4606,15 @@
         <v>70</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -4031,15 +4647,15 @@
         <v>70</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -4072,15 +4688,15 @@
         <v>80</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -4113,7 +4729,7 @@
         <v>70</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -4391,10 +5007,10 @@
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>19</v>
@@ -4403,10 +5019,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>5</v>
@@ -4443,22 +5059,22 @@
         <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>11</v>
@@ -4466,12 +5082,12 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="13">
+        <v>111</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
@@ -4492,12 +5108,12 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="13">
+        <v>133</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
@@ -4513,17 +5129,17 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="13">
+        <v>134</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
       <c r="E6">
@@ -4539,17 +5155,17 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="13">
+        <v>135</v>
+      </c>
+      <c r="D7">
         <v>4</v>
       </c>
       <c r="E7">
@@ -4565,7 +5181,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4601,22 +5217,22 @@
         <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>5</v>
@@ -4639,7 +5255,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>8</v>
@@ -4650,19 +5266,19 @@
         <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>11</v>
@@ -4670,10 +5286,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4688,15 +5304,15 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -4711,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4806,19 +5422,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -4849,16 +5465,16 @@
         <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>11</v>
@@ -4866,10 +5482,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4881,15 +5497,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -4901,7 +5517,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -4999,16 +5615,16 @@
         <v>15</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -5029,10 +5645,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>8</v>
@@ -5046,17 +5662,17 @@
         <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>11</v>
@@ -5068,7 +5684,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>23</v>
@@ -5092,7 +5708,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
@@ -5116,7 +5732,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>35</v>
@@ -5140,10 +5756,10 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D7" s="1">
         <v>30</v>
@@ -5155,7 +5771,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -5380,40 +5996,40 @@
         <v>12</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>5</v>
@@ -5439,10 +6055,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>8</v>
@@ -5468,48 +6084,48 @@
         <v>14</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="J3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="L3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="N3" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -5530,27 +6146,27 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -5571,22 +6187,22 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" t="s">
         <v>84</v>
-      </c>
-      <c r="L5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M5" t="s">
-        <v>83</v>
-      </c>
-      <c r="N5" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Item_Info.xlsx
+++ b/Item_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\2_UNITIYGAME\DungeonRPG\Assets\JJData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A98F1A7-286B-4B24-AE51-D7942E5F7BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AEB4B8-F1FE-4B90-AE76-D947FCBD6E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="7" r:id="rId1"/>
@@ -57,21 +57,12 @@
     <author>tc={FD595059-0693-49EC-8400-D9EEC9EFBCFD}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FD595059-0693-49EC-8400-D9EEC9EFBCFD}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{FD595059-0693-49EC-8400-D9EEC9EFBCFD}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     사용거리가 0이라면 설치형 아이템</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -79,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="206">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,23 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_id</t>
-  </si>
-  <si>
-    <t>Item_rank</t>
-  </si>
-  <si>
-    <t>Item_weight</t>
-  </si>
-  <si>
-    <t>Sell_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purchase_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Explanation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Potion_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>채집능력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,25 +148,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Armor_id</t>
-  </si>
-  <si>
-    <t>Armor_hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor_stamina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Potion_effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본 힐링 포션, 효과는 체력 30 회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_maxAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>더미 드랍템 데이터.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,18 +236,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UseItem_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용 거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UseItem_useDistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>던질 수 있는 돌멩이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,18 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Condition_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condition_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condition_explanation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>임시 조건</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,18 +300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UseItem_damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_ability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ITM_WPN_002</t>
   </si>
   <si>
@@ -403,10 +318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weapon_atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ITM_DRP_SCR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -443,14 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weapon_1st_Ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_2nd_Ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가드 성능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -459,18 +362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weapon_guard_ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_strong_Ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_justGaurd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이동속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,14 +370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Armor_speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor_hiding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ITM_POT_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -499,22 +382,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isHeal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가죽 가방</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -523,22 +390,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BPK_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPK_max_weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회피 강화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BPK_judge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경량 가방</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -555,10 +410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weapon_max_charge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>은 갑옷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -589,10 +440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weapon_strong_speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강공격 이동속도 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -650,18 +497,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PCH_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCH_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCH_heal_buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>개수 특화 파우치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -690,26 +525,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_usable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 장착가능 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_wearable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파우치 등록 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_pouchable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ITM_POT_004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -790,26 +613,14 @@
     <t>PAR_POT_004</t>
   </si>
   <si>
-    <t>Item_PAR_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PAR_DRP_SCR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UseItem_useDistance2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_sprite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JSM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -843,6 +654,192 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 최대 등록 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_register_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sprite</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>usable</t>
+  </si>
+  <si>
+    <t>wearable</t>
+  </si>
+  <si>
+    <t>pouchable</t>
+  </si>
+  <si>
+    <t>PAR_DT</t>
+  </si>
+  <si>
+    <t>max_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>sound_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>1st_Ratio</t>
+  </si>
+  <si>
+    <t>2nd_Ratio</t>
+  </si>
+  <si>
+    <t>strong_Ratio</t>
+  </si>
+  <si>
+    <t>max_charge</t>
+  </si>
+  <si>
+    <t>strong_speed</t>
+  </si>
+  <si>
+    <t>guard_ratio</t>
+  </si>
+  <si>
+    <t>just_guard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>stamina</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>hiding</t>
+  </si>
+  <si>
+    <t>max_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>judge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부여 버프/디버프 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_POT_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중형 공격력 증가 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형 공격력 증가 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형 정화 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong1/strong2/strong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -957,7 +954,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ResourceNode"/>
@@ -1350,7 +1347,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E1" dT="2025-04-13T18:40:10.18" personId="{3E61A1CB-F443-4652-9F2C-6087827B106C}" id="{FD595059-0693-49EC-8400-D9EEC9EFBCFD}">
+  <threadedComment ref="F1" dT="2025-04-13T18:40:10.18" personId="{3E61A1CB-F443-4652-9F2C-6087827B106C}" id="{FD595059-0693-49EC-8400-D9EEC9EFBCFD}">
     <text>사용거리가 0이라면 설치형 아이템</text>
   </threadedComment>
 </ThreadedComments>
@@ -1360,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A329797-2AD7-4E84-B33C-1A87B89CCD21}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1380,19 +1377,19 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -1407,21 +1404,21 @@
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -1448,13 +1445,13 @@
         <v>6</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>8</v>
@@ -1462,54 +1459,54 @@
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="E4" s="1">
         <v>99</v>
@@ -1536,18 +1533,18 @@
         <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="E5" s="1">
         <v>99</v>
@@ -1574,18 +1571,18 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="E6" s="1">
         <v>99</v>
@@ -1612,18 +1609,18 @@
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="E7" s="1">
         <v>99</v>
@@ -1650,18 +1647,18 @@
         <v>1</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="E8" s="1">
         <v>99</v>
@@ -1688,18 +1685,18 @@
         <v>1</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="E9" s="1">
         <v>99</v>
@@ -1726,18 +1723,18 @@
         <v>1</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="E10" s="1">
         <v>99</v>
@@ -1764,18 +1761,18 @@
         <v>1</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="E11" s="1">
         <v>99</v>
@@ -1802,18 +1799,18 @@
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1840,18 +1837,18 @@
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1878,18 +1875,18 @@
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1916,18 +1913,18 @@
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1954,18 +1951,18 @@
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1992,18 +1989,18 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2030,18 +2027,18 @@
         <v>0</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -2068,18 +2065,18 @@
         <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -2106,18 +2103,18 @@
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -2144,18 +2141,18 @@
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -2182,18 +2179,18 @@
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -2220,18 +2217,18 @@
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -2258,18 +2255,18 @@
         <v>0</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -2296,18 +2293,18 @@
         <v>0</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E25" s="1">
         <v>5</v>
@@ -2334,18 +2331,18 @@
         <v>1</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E26" s="1">
         <v>5</v>
@@ -2372,18 +2369,18 @@
         <v>1</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E27" s="1">
         <v>5</v>
@@ -2410,18 +2407,18 @@
         <v>1</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>
@@ -2448,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
@@ -2469,7 +2466,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39B297B-3890-4043-856D-F4A60F5A9BA5}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -2480,213 +2477,244 @@
     <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
       </c>
       <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
         <v>11</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>10</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>5</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
         <v>12</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
         <v>13</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>10</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>5</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>56</v>
+      <c r="H10" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2701,7 +2729,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2715,13 +2743,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -2729,7 +2757,7 @@
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -2740,24 +2768,24 @@
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2771,7 +2799,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:M8"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2793,40 +2821,40 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>5</v>
@@ -2834,7 +2862,7 @@
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -2872,48 +2900,48 @@
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -2943,15 +2971,15 @@
         <v>70</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -2981,15 +3009,15 @@
         <v>70</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -3019,15 +3047,15 @@
         <v>70</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -3057,15 +3085,15 @@
         <v>80</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -3095,7 +3123,7 @@
         <v>70</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -3329,7 +3357,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H7"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3347,25 +3375,25 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -3373,7 +3401,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -3396,33 +3424,33 @@
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3437,15 +3465,15 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -3460,15 +3488,15 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -3483,15 +3511,15 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -3506,7 +3534,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3520,7 +3548,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3539,22 +3567,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -3562,7 +3590,7 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -3574,7 +3602,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>8</v>
@@ -3582,30 +3610,30 @@
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -3617,15 +3645,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>35</v>
@@ -3637,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -3708,7 +3736,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3726,19 +3754,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -3746,7 +3774,7 @@
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -3763,27 +3791,27 @@
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3792,15 +3820,15 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3809,7 +3837,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -3877,10 +3905,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D032C6B-C866-4CFC-B063-5F66B309E307}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3889,7 +3917,8 @@
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="44.125" customWidth="1"/>
     <col min="7" max="7" width="43.75" customWidth="1"/>
     <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
@@ -3898,22 +3927,22 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -3924,7 +3953,7 @@
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -3934,10 +3963,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>8</v>
@@ -3948,23 +3977,19 @@
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>109</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -3973,22 +3998,20 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" s="1">
-        <v>30</v>
-      </c>
-      <c r="E4" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -3997,22 +4020,22 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1">
         <v>30</v>
       </c>
-      <c r="E5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8" t="b">
-        <v>1</v>
+      <c r="E5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -4021,22 +4044,22 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="D6" s="1">
-        <v>30</v>
-      </c>
-      <c r="E6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8" t="b">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4045,22 +4068,22 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="D7" s="1">
-        <v>30</v>
-      </c>
-      <c r="E7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8" t="b">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4068,12 +4091,24 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -4083,8 +4118,8 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -4095,8 +4130,8 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -4107,8 +4142,8 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -4119,8 +4154,8 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -4131,8 +4166,8 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -4143,8 +4178,8 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -4155,8 +4190,8 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -4167,8 +4202,8 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -4179,8 +4214,8 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -4191,64 +4226,24 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4261,7 +4256,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4279,13 +4274,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -4293,7 +4288,7 @@
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -4307,27 +4302,27 @@
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Item_Info.xlsx
+++ b/Item_Info.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mp324\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AEB4B8-F1FE-4B90-AE76-D947FCBD6E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="29036" windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="7" r:id="rId1"/>
@@ -33,7 +32,7 @@
     <definedName name="아이템id">OFFSET(Item!$B$4,0,0,COUNTA(Item!$B:$B),1)</definedName>
     <definedName name="특수조건id">OFFSET(Condition!$B$4,0,0,COUNTA(Condition!$B:$B),1)</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,17 +51,26 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={FD595059-0693-49EC-8400-D9EEC9EFBCFD}</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{FD595059-0693-49EC-8400-D9EEC9EFBCFD}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     사용거리가 0이라면 설치형 아이템</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -70,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="208">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -840,13 +848,21 @@
   </si>
   <si>
     <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -954,7 +970,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ResourceNode"/>
@@ -1354,28 +1370,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A329797-2AD7-4E84-B33C-1A87B89CCD21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="19.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="19.33203125" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1416,7 +1432,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1457,7 +1473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -1498,7 +1514,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
@@ -1536,7 +1552,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
@@ -1574,7 +1590,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>55</v>
       </c>
@@ -1612,7 +1628,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
@@ -1650,7 +1666,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>51</v>
       </c>
@@ -1688,7 +1704,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>52</v>
       </c>
@@ -1726,7 +1742,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
@@ -1764,7 +1780,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>62</v>
       </c>
@@ -1802,7 +1818,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1840,7 +1856,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>57</v>
       </c>
@@ -1878,7 +1894,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>58</v>
       </c>
@@ -1916,7 +1932,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>88</v>
       </c>
@@ -1954,7 +1970,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>89</v>
       </c>
@@ -1992,7 +2008,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2030,7 +2046,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>96</v>
       </c>
@@ -2068,7 +2084,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>97</v>
       </c>
@@ -2106,7 +2122,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>98</v>
       </c>
@@ -2144,7 +2160,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>101</v>
       </c>
@@ -2182,7 +2198,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>102</v>
       </c>
@@ -2220,7 +2236,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>110</v>
       </c>
@@ -2258,7 +2274,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>111</v>
       </c>
@@ -2296,7 +2312,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>75</v>
       </c>
@@ -2334,7 +2350,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>76</v>
       </c>
@@ -2372,7 +2388,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
         <v>77</v>
       </c>
@@ -2410,7 +2426,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>117</v>
       </c>
@@ -2448,12 +2464,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
@@ -2465,26 +2481,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39B297B-3890-4043-856D-F4A60F5A9BA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.109375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2510,7 +2526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -2533,7 +2549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -2556,7 +2572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>119</v>
       </c>
@@ -2579,7 +2595,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>120</v>
       </c>
@@ -2602,7 +2618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>121</v>
       </c>
@@ -2625,7 +2641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>122</v>
       </c>
@@ -2648,7 +2664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>123</v>
       </c>
@@ -2671,7 +2687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>124</v>
       </c>
@@ -2694,7 +2710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>125</v>
       </c>
@@ -2725,23 +2741,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB1C16F-F7EE-488C-95D3-C3AA56FB8A89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.109375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2755,7 +2771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -2766,7 +2782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -2777,7 +2793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>143</v>
       </c>
@@ -2795,31 +2811,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190C59BF-9543-48F1-BB0D-FDCF9B553F8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.21875" style="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.44140625" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2860,7 +2876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -2898,7 +2914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -2936,7 +2952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>126</v>
       </c>
@@ -2974,7 +2990,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>127</v>
       </c>
@@ -3012,7 +3028,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>128</v>
       </c>
@@ -3050,7 +3066,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>129</v>
       </c>
@@ -3088,7 +3104,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>130</v>
       </c>
@@ -3126,7 +3142,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
@@ -3137,7 +3153,7 @@
       <c r="K9"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
@@ -3148,7 +3164,7 @@
       <c r="K10"/>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
@@ -3159,7 +3175,7 @@
       <c r="K11"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
@@ -3170,7 +3186,7 @@
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
@@ -3181,7 +3197,7 @@
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
@@ -3192,7 +3208,7 @@
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
@@ -3203,7 +3219,7 @@
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
@@ -3214,7 +3230,7 @@
       <c r="K16"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
@@ -3225,7 +3241,7 @@
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
@@ -3236,7 +3252,7 @@
       <c r="K18"/>
       <c r="L18"/>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
@@ -3247,7 +3263,7 @@
       <c r="K19"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
@@ -3258,7 +3274,7 @@
       <c r="K20"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
@@ -3269,7 +3285,7 @@
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
@@ -3280,7 +3296,7 @@
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -3291,7 +3307,7 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -3302,7 +3318,7 @@
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -3313,7 +3329,7 @@
       <c r="K25"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
@@ -3324,7 +3340,7 @@
       <c r="K26"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
@@ -3335,7 +3351,7 @@
       <c r="K27"/>
       <c r="L27"/>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
@@ -3353,27 +3369,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8B7594-854B-40F4-B28F-BD7B5130D053}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="7" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.33203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3399,7 +3415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -3422,7 +3438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -3445,7 +3461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>131</v>
       </c>
@@ -3468,7 +3484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>132</v>
       </c>
@@ -3491,7 +3507,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>133</v>
       </c>
@@ -3514,7 +3530,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>134</v>
       </c>
@@ -3544,28 +3560,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E49322-F639-407B-BE7C-363A9511C10B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3588,7 +3604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -3608,7 +3624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -3628,7 +3644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>135</v>
       </c>
@@ -3648,7 +3664,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>136</v>
       </c>
@@ -3668,61 +3684,61 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F24" s="8"/>
     </row>
   </sheetData>
@@ -3732,27 +3748,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB9C7F3-4CB1-49B1-A80A-5EC57812C7A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.33203125" style="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3772,7 +3788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -3789,7 +3805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -3806,7 +3822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>135</v>
       </c>
@@ -3823,7 +3839,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>136</v>
       </c>
@@ -3840,61 +3856,61 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F24" s="8"/>
     </row>
   </sheetData>
@@ -3904,28 +3920,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D032C6B-C866-4CFC-B063-5F66B309E307}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="44.125" customWidth="1"/>
-    <col min="7" max="7" width="43.75" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.75" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" customWidth="1"/>
+    <col min="7" max="7" width="43.77734375" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3951,7 +3967,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -3975,7 +3991,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -3986,8 +4002,12 @@
       <c r="D3" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
@@ -3995,7 +4015,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>139</v>
@@ -4017,7 +4037,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>140</v>
@@ -4041,7 +4061,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>141</v>
@@ -4065,7 +4085,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>196</v>
@@ -4089,7 +4109,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>142</v>
@@ -4113,7 +4133,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4125,7 +4145,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4137,7 +4157,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -4149,7 +4169,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4161,7 +4181,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4173,7 +4193,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4185,7 +4205,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4197,7 +4217,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4209,7 +4229,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4221,7 +4241,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4233,7 +4253,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4248,31 +4268,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C04FAAE-BA01-4C13-8221-18036A947D32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -4286,7 +4307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -4300,7 +4321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -4314,7 +4335,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>

--- a/Item_Info.xlsx
+++ b/Item_Info.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mp324\Documents\GitHub\DungeonRPGDataFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="29036" windowHeight="15840" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="7" r:id="rId1"/>
@@ -733,12 +733,6 @@
     <t>ability</t>
   </si>
   <si>
-    <t>1st_Ratio</t>
-  </si>
-  <si>
-    <t>2nd_Ratio</t>
-  </si>
-  <si>
     <t>strong_Ratio</t>
   </si>
   <si>
@@ -856,6 +850,14 @@
   </si>
   <si>
     <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1373,25 +1375,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="19.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="19.375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1432,7 +1434,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1473,7 +1475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -1514,7 +1516,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
@@ -1552,7 +1554,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
@@ -1590,7 +1592,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>55</v>
       </c>
@@ -1628,7 +1630,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
@@ -1666,7 +1668,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>51</v>
       </c>
@@ -1704,7 +1706,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>52</v>
       </c>
@@ -1742,7 +1744,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
@@ -1780,7 +1782,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>62</v>
       </c>
@@ -1818,7 +1820,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1856,7 +1858,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>57</v>
       </c>
@@ -1894,7 +1896,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>58</v>
       </c>
@@ -1932,7 +1934,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>88</v>
       </c>
@@ -1970,7 +1972,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>89</v>
       </c>
@@ -2008,7 +2010,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2046,7 +2048,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>96</v>
       </c>
@@ -2084,7 +2086,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>97</v>
       </c>
@@ -2122,7 +2124,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>98</v>
       </c>
@@ -2160,7 +2162,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>101</v>
       </c>
@@ -2198,7 +2200,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>102</v>
       </c>
@@ -2236,7 +2238,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>110</v>
       </c>
@@ -2274,7 +2276,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>111</v>
       </c>
@@ -2312,7 +2314,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>75</v>
       </c>
@@ -2350,7 +2352,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>76</v>
       </c>
@@ -2388,7 +2390,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>77</v>
       </c>
@@ -2426,7 +2428,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>117</v>
       </c>
@@ -2464,12 +2466,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
@@ -2488,19 +2490,19 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2526,7 +2528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -2549,7 +2551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -2572,7 +2574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>119</v>
       </c>
@@ -2595,7 +2597,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>120</v>
       </c>
@@ -2618,7 +2620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>121</v>
       </c>
@@ -2641,7 +2643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>122</v>
       </c>
@@ -2664,7 +2666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>123</v>
       </c>
@@ -2687,7 +2689,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>124</v>
       </c>
@@ -2710,7 +2712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>125</v>
       </c>
@@ -2748,16 +2750,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2771,7 +2773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -2782,7 +2784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -2793,7 +2795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>143</v>
       </c>
@@ -2815,27 +2817,27 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.5" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2876,7 +2878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -2914,7 +2916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -2928,31 +2930,31 @@
         <v>173</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>126</v>
       </c>
@@ -2990,7 +2992,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>127</v>
       </c>
@@ -3028,7 +3030,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>128</v>
       </c>
@@ -3066,7 +3068,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>129</v>
       </c>
@@ -3104,7 +3106,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>130</v>
       </c>
@@ -3142,7 +3144,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
@@ -3153,7 +3155,7 @@
       <c r="K9"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
@@ -3164,7 +3166,7 @@
       <c r="K10"/>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
@@ -3175,7 +3177,7 @@
       <c r="K11"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
@@ -3186,7 +3188,7 @@
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
@@ -3197,7 +3199,7 @@
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
@@ -3208,7 +3210,7 @@
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
@@ -3219,7 +3221,7 @@
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
@@ -3230,7 +3232,7 @@
       <c r="K16"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
@@ -3241,7 +3243,7 @@
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
@@ -3252,7 +3254,7 @@
       <c r="K18"/>
       <c r="L18"/>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
@@ -3263,7 +3265,7 @@
       <c r="K19"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
@@ -3274,7 +3276,7 @@
       <c r="K20"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
@@ -3285,7 +3287,7 @@
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
@@ -3296,7 +3298,7 @@
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -3307,7 +3309,7 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -3318,7 +3320,7 @@
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -3329,7 +3331,7 @@
       <c r="K25"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
@@ -3340,7 +3342,7 @@
       <c r="K26"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
@@ -3351,7 +3353,7 @@
       <c r="K27"/>
       <c r="L27"/>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
@@ -3365,6 +3367,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3376,20 +3379,20 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.375" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3415,7 +3418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -3438,7 +3441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -3446,22 +3449,22 @@
         <v>156</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>131</v>
       </c>
@@ -3484,7 +3487,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>132</v>
       </c>
@@ -3507,7 +3510,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>133</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>134</v>
       </c>
@@ -3567,21 +3570,21 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3604,7 +3607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -3624,7 +3627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -3632,19 +3635,19 @@
         <v>171</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>135</v>
       </c>
@@ -3664,7 +3667,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>136</v>
       </c>
@@ -3684,61 +3687,61 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F24" s="8"/>
     </row>
   </sheetData>
@@ -3755,20 +3758,20 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.375" style="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3788,7 +3791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -3805,7 +3808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -3813,16 +3816,16 @@
         <v>171</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>135</v>
       </c>
@@ -3839,7 +3842,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>136</v>
       </c>
@@ -3856,61 +3859,61 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F24" s="8"/>
     </row>
   </sheetData>
@@ -3924,24 +3927,24 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="44.109375" customWidth="1"/>
-    <col min="7" max="7" width="43.77734375" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.77734375" customWidth="1"/>
+    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="44.125" customWidth="1"/>
+    <col min="7" max="7" width="43.75" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3955,10 +3958,10 @@
         <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -3967,7 +3970,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -3991,7 +3994,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -4000,13 +4003,13 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>9</v>
@@ -4015,7 +4018,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>139</v>
@@ -4024,10 +4027,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
@@ -4037,7 +4040,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>140</v>
@@ -4049,10 +4052,10 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>32</v>
@@ -4061,22 +4064,22 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D6" s="1">
         <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>34</v>
@@ -4085,22 +4088,22 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D7" s="1">
         <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>34</v>
@@ -4109,22 +4112,22 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>113</v>
@@ -4133,7 +4136,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4145,7 +4148,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4157,7 +4160,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -4169,7 +4172,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4181,7 +4184,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4193,7 +4196,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4205,7 +4208,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4217,7 +4220,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4229,7 +4232,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4241,7 +4244,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4253,7 +4256,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4280,20 +4283,20 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -4307,7 +4310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -4321,7 +4324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -4329,13 +4332,13 @@
         <v>171</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>

--- a/Item_Info.xlsx
+++ b/Item_Info.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91255B95-9205-44E9-B738-61D54FB7DE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="7" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Weapon" sheetId="3" r:id="rId4"/>
     <sheet name="Armor" sheetId="4" r:id="rId5"/>
     <sheet name="Backpack" sheetId="13" r:id="rId6"/>
-    <sheet name="Pouch" sheetId="14" r:id="rId7"/>
+    <sheet name="SubWeapon" sheetId="14" r:id="rId7"/>
     <sheet name="Potion" sheetId="2" r:id="rId8"/>
     <sheet name="Condition" sheetId="12" r:id="rId9"/>
   </sheets>
@@ -37,40 +38,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={FD595059-0693-49EC-8400-D9EEC9EFBCFD}</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     사용거리가 0이라면 설치형 아이템</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -78,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="227">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구매 가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>채집능력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어구 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,435 +411,496 @@
     <t>ITM_WPN_005</t>
   </si>
   <si>
+    <t>강공격 이동속도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도 특화 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명력 특화 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_ARM_002</t>
+  </si>
+  <si>
+    <t>ITM_ARM_003</t>
+  </si>
+  <si>
+    <t>ITM_ARM_004</t>
+  </si>
+  <si>
+    <t>최대 무게 특화 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 강화 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_BPK_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_BPK_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수 특화 파우치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복량 특화 파우치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형 스테미너 소비 감소 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테미너 소비를 감소시켜주는 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 사용가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 장착가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 등록 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_POT_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 상세정보 DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_HER_JSM</t>
+  </si>
+  <si>
+    <t>PAR_HER_JNB</t>
+  </si>
+  <si>
+    <t>PAR_HER_RSM</t>
+  </si>
+  <si>
+    <t>PAR_MIN_CPR</t>
+  </si>
+  <si>
+    <t>PAR_MIN_SIL</t>
+  </si>
+  <si>
+    <t>PAR_MIN_GOL</t>
+  </si>
+  <si>
+    <t>PAR_MIN_ROC</t>
+  </si>
+  <si>
+    <t>PAR_WPN_001</t>
+  </si>
+  <si>
+    <t>PAR_WPN_002</t>
+  </si>
+  <si>
+    <t>PAR_WPN_003</t>
+  </si>
+  <si>
+    <t>PAR_WPN_004</t>
+  </si>
+  <si>
+    <t>PAR_WPN_005</t>
+  </si>
+  <si>
+    <t>PAR_ARM_001</t>
+  </si>
+  <si>
+    <t>PAR_ARM_002</t>
+  </si>
+  <si>
+    <t>PAR_ARM_003</t>
+  </si>
+  <si>
+    <t>PAR_ARM_004</t>
+  </si>
+  <si>
+    <t>PAR_BPK_001</t>
+  </si>
+  <si>
+    <t>PAR_BPK_002</t>
+  </si>
+  <si>
+    <t>PAR_POT_001</t>
+  </si>
+  <si>
+    <t>PAR_POT_002</t>
+  </si>
+  <si>
+    <t>PAR_POT_003</t>
+  </si>
+  <si>
+    <t>PAR_POT_004</t>
+  </si>
+  <si>
+    <t>PAR_DRP_SCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JNB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 최대 등록 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_register_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sprite</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>usable</t>
+  </si>
+  <si>
+    <t>wearable</t>
+  </si>
+  <si>
+    <t>pouchable</t>
+  </si>
+  <si>
+    <t>PAR_DT</t>
+  </si>
+  <si>
+    <t>max_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>sound_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>strong_Ratio</t>
+  </si>
+  <si>
+    <t>max_charge</t>
+  </si>
+  <si>
+    <t>strong_speed</t>
+  </si>
+  <si>
+    <t>guard_ratio</t>
+  </si>
+  <si>
+    <t>just_guard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>stamina</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>hiding</t>
+  </si>
+  <si>
+    <t>max_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>judge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부여 버프/디버프 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_POT_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중형 공격력 증가 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형 공격력 증가 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형 정화 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong1/strong2/strong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리 비용</t>
+  </si>
+  <si>
+    <t>수리 재료</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>repair_cost</t>
+  </si>
+  <si>
+    <t>repair_ing</t>
+  </si>
+  <si>
+    <t>낡은 곡괭이</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>기본으로 지급되는 견습용 곡괭이</t>
+  </si>
+  <si>
+    <t>구리 곡괭이</t>
+  </si>
+  <si>
+    <t>ITM_MIN_CPR</t>
+  </si>
+  <si>
+    <t>은 곡괭이</t>
+  </si>
+  <si>
+    <t>ITM_MIN_SIL</t>
+  </si>
+  <si>
+    <t>금 곡괭이</t>
+  </si>
+  <si>
+    <t>ITM_MIN_GOL</t>
+  </si>
+  <si>
     <t>공격력 특화 곡괭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 곡괭이</t>
   </si>
   <si>
     <t>방어 특화 곡괭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_WPN_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">금 곡괭이+ </t>
   </si>
   <si>
     <t>강공격 특화 곡괭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강공격 이동속도 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도 특화 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생명력 특화 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_ARM_002</t>
-  </si>
-  <si>
-    <t>ITM_ARM_003</t>
-  </si>
-  <si>
-    <t>ITM_ARM_004</t>
-  </si>
-  <si>
-    <t>최대 무게 특화 가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피 강화 가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_BPK_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_BPK_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가죽 파우치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파우치 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복량 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파우치 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가방 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수 특화 파우치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복량 특화 파우치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_PCH_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_PCH_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소형 스테미너 소비 감소 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테미너 소비를 감소시켜주는 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 사용가능 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 장착가능 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파우치 등록 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_POT_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 상세정보 DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAR_HER_JSM</t>
-  </si>
-  <si>
-    <t>PAR_HER_JNB</t>
-  </si>
-  <si>
-    <t>PAR_HER_RSM</t>
-  </si>
-  <si>
-    <t>PAR_MIN_CPR</t>
-  </si>
-  <si>
-    <t>PAR_MIN_SIL</t>
-  </si>
-  <si>
-    <t>PAR_MIN_GOL</t>
-  </si>
-  <si>
-    <t>PAR_MIN_ROC</t>
-  </si>
-  <si>
-    <t>PAR_WPN_001</t>
-  </si>
-  <si>
-    <t>PAR_WPN_002</t>
-  </si>
-  <si>
-    <t>PAR_WPN_003</t>
-  </si>
-  <si>
-    <t>PAR_WPN_004</t>
-  </si>
-  <si>
-    <t>PAR_WPN_005</t>
-  </si>
-  <si>
-    <t>PAR_ARM_001</t>
-  </si>
-  <si>
-    <t>PAR_ARM_002</t>
-  </si>
-  <si>
-    <t>PAR_ARM_003</t>
-  </si>
-  <si>
-    <t>PAR_ARM_004</t>
-  </si>
-  <si>
-    <t>PAR_BPK_001</t>
-  </si>
-  <si>
-    <t>PAR_BPK_002</t>
-  </si>
-  <si>
-    <t>PAR_PCH_001</t>
-  </si>
-  <si>
-    <t>PAR_PCH_002</t>
-  </si>
-  <si>
-    <t>PAR_POT_001</t>
-  </si>
-  <si>
-    <t>PAR_POT_002</t>
-  </si>
-  <si>
-    <t>PAR_POT_003</t>
-  </si>
-  <si>
-    <t>PAR_POT_004</t>
-  </si>
-  <si>
-    <t>PAR_DRP_SCR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JNB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파우치 최대 등록 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_register_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>sprite</t>
-  </si>
-  <si>
-    <t>rank</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>usable</t>
-  </si>
-  <si>
-    <t>wearable</t>
-  </si>
-  <si>
-    <t>pouchable</t>
-  </si>
-  <si>
-    <t>PAR_DT</t>
-  </si>
-  <si>
-    <t>max_amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sell_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>sound_range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-  </si>
-  <si>
-    <t>ability</t>
-  </si>
-  <si>
-    <t>strong_Ratio</t>
-  </si>
-  <si>
-    <t>max_charge</t>
-  </si>
-  <si>
-    <t>strong_speed</t>
-  </si>
-  <si>
-    <t>guard_ratio</t>
-  </si>
-  <si>
-    <t>just_guard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>stamina</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>hiding</t>
-  </si>
-  <si>
-    <t>max_weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>judge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal_buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explanation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부여 버프/디버프 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAR_POT_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중형 공격력 증가 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대형 공격력 증가 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소형 정화 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong1/strong2/strong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포션 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ratio1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ratio2</t>
+  </si>
+  <si>
+    <t>PAR_SWP_001</t>
+  </si>
+  <si>
+    <t>PAR_SWP_002</t>
+  </si>
+  <si>
+    <t>채집 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_SWP_001</t>
+  </si>
+  <si>
+    <t>ITM_SWP_002</t>
+  </si>
+  <si>
+    <t>구리 망치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주석 망치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_WPN_006</t>
+  </si>
+  <si>
+    <t>낡은 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리 재료 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_ing_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -934,7 +970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -954,6 +990,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -972,7 +1009,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ResourceNode"/>
@@ -1372,11 +1409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1388,26 +1425,25 @@
     <col min="5" max="5" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="19.375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="9" max="12" width="19.375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -1419,112 +1455,103 @@
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="B3" s="6" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E4" s="1">
         <v>99</v>
@@ -1538,31 +1565,28 @@
       <c r="H4" s="1">
         <v>10</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
+      <c r="I4" t="b">
+        <v>1</v>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E5" s="1">
         <v>99</v>
@@ -1576,31 +1600,28 @@
       <c r="H5" s="1">
         <v>20</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
+      <c r="I5" t="b">
+        <v>1</v>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E6" s="1">
         <v>99</v>
@@ -1614,31 +1635,28 @@
       <c r="H6" s="1">
         <v>30</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
+      <c r="I6" t="b">
+        <v>1</v>
       </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E7" s="1">
         <v>99</v>
@@ -1652,31 +1670,28 @@
       <c r="H7" s="1">
         <v>10</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
+      <c r="I7" t="b">
+        <v>1</v>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E8" s="1">
         <v>99</v>
@@ -1690,31 +1705,28 @@
       <c r="H8" s="1">
         <v>10</v>
       </c>
-      <c r="I8" s="1">
-        <v>0</v>
+      <c r="I8" t="b">
+        <v>1</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E9" s="1">
         <v>99</v>
@@ -1728,31 +1740,28 @@
       <c r="H9" s="1">
         <v>10</v>
       </c>
-      <c r="I9" s="1">
-        <v>0</v>
+      <c r="I9" t="b">
+        <v>1</v>
       </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E10" s="1">
         <v>99</v>
@@ -1766,31 +1775,28 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="1">
-        <v>5</v>
+      <c r="I10" t="b">
+        <v>1</v>
       </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E11" s="1">
         <v>99</v>
@@ -1804,7 +1810,7 @@
       <c r="H11" s="1">
         <v>10</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="b">
@@ -1813,22 +1819,19 @@
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L11" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1840,33 +1843,30 @@
         <v>5</v>
       </c>
       <c r="H12" s="1">
-        <v>100</v>
-      </c>
-      <c r="I12" s="1">
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
       <c r="J12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1878,71 +1878,65 @@
         <v>5</v>
       </c>
       <c r="H13" s="1">
+        <v>100</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1">
         <v>150</v>
       </c>
-      <c r="I13" s="1">
-        <v>300</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>6</v>
-      </c>
-      <c r="H14" s="1">
-        <v>200</v>
-      </c>
-      <c r="I14" s="1">
-        <v>400</v>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
       <c r="J14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1951,36 +1945,33 @@
         <v>2</v>
       </c>
       <c r="G15" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H15" s="1">
         <v>200</v>
       </c>
-      <c r="I15" s="1">
-        <v>400</v>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
       <c r="J15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1989,74 +1980,68 @@
         <v>2</v>
       </c>
       <c r="G16" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H16" s="1">
         <v>200</v>
       </c>
-      <c r="I16" s="1">
-        <v>400</v>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
       <c r="J16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H17" s="1">
-        <v>100</v>
-      </c>
-      <c r="I17" s="1">
         <v>200</v>
       </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
       <c r="J17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -2068,71 +2053,65 @@
         <v>3</v>
       </c>
       <c r="H18" s="1">
+        <v>100</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
         <v>150</v>
       </c>
-      <c r="I18" s="1">
-        <v>300</v>
-      </c>
-      <c r="J18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1">
-        <v>4</v>
-      </c>
-      <c r="H19" s="1">
-        <v>200</v>
-      </c>
-      <c r="I19" s="1">
-        <v>400</v>
+      <c r="I19" t="b">
+        <v>0</v>
       </c>
       <c r="J19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -2141,74 +2120,68 @@
         <v>2</v>
       </c>
       <c r="G20" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H20" s="1">
         <v>200</v>
       </c>
-      <c r="I20" s="1">
-        <v>400</v>
+      <c r="I20" t="b">
+        <v>0</v>
       </c>
       <c r="J20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H21" s="1">
-        <v>100</v>
-      </c>
-      <c r="I21" s="1">
         <v>200</v>
       </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
       <c r="J21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -2222,31 +2195,28 @@
       <c r="H22" s="1">
         <v>100</v>
       </c>
-      <c r="I22" s="1">
-        <v>200</v>
+      <c r="I22" t="b">
+        <v>0</v>
       </c>
       <c r="J22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -2260,31 +2230,28 @@
       <c r="H23" s="1">
         <v>100</v>
       </c>
-      <c r="I23" s="1">
-        <v>200</v>
+      <c r="I23" t="b">
+        <v>0</v>
       </c>
       <c r="J23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -2298,46 +2265,43 @@
       <c r="H24" s="1">
         <v>100</v>
       </c>
-      <c r="I24" s="1">
-        <v>200</v>
+      <c r="I24" t="b">
+        <v>0</v>
       </c>
       <c r="J24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E25" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H25" s="1">
-        <v>10</v>
-      </c>
-      <c r="I25" s="1">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
@@ -2345,22 +2309,19 @@
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L25" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E26" s="1">
         <v>5</v>
@@ -2372,33 +2333,30 @@
         <v>0.5</v>
       </c>
       <c r="H26" s="1">
-        <v>30</v>
-      </c>
-      <c r="I26" s="1">
-        <v>150</v>
+        <v>10</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
       </c>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" t="b">
-        <v>1</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E27" s="1">
         <v>5</v>
@@ -2410,33 +2368,30 @@
         <v>0.5</v>
       </c>
       <c r="H27" s="1">
-        <v>10</v>
-      </c>
-      <c r="I27" s="1">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
       </c>
       <c r="J27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>
@@ -2448,33 +2403,65 @@
         <v>0.5</v>
       </c>
       <c r="H28" s="1">
+        <v>10</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="1">
         <v>30</v>
       </c>
-      <c r="I28" s="1">
-        <v>150</v>
-      </c>
-      <c r="J28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" t="b">
-        <v>1</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
-      <c r="L30"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2483,7 +2470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2504,82 +2491,82 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -2594,15 +2581,15 @@
         <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -2617,15 +2604,15 @@
         <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -2640,15 +2627,15 @@
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -2663,15 +2650,15 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -2686,15 +2673,15 @@
         <v>5</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -2709,15 +2696,15 @@
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
@@ -2732,7 +2719,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2743,7 +2730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2761,49 +2748,49 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2813,11 +2800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2833,139 +2820,169 @@
     <col min="9" max="10" width="21.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.5" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="13" max="13" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>0.7</v>
@@ -2988,22 +3005,31 @@
       <c r="L4">
         <v>70</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F5">
         <v>0.7</v>
@@ -3026,22 +3052,31 @@
       <c r="L5">
         <v>70</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="1">
+        <v>100</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O5" s="9">
+        <v>3</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
         <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
       </c>
       <c r="F6">
         <v>0.7</v>
@@ -3064,22 +3099,31 @@
       <c r="L6">
         <v>70</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M6" s="1">
+        <v>150</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O6" s="9">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>0.7</v>
@@ -3097,27 +3141,36 @@
         <v>30</v>
       </c>
       <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="L7">
         <v>70</v>
       </c>
-      <c r="L7">
-        <v>80</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M7" s="1">
+        <v>200</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O7" s="9">
+        <v>3</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="D8">
         <v>15</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="F8">
         <v>0.7</v>
@@ -3126,36 +3179,81 @@
         <v>1.3</v>
       </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>70</v>
+      </c>
+      <c r="L8">
+        <v>80</v>
+      </c>
+      <c r="M8" s="1">
+        <v>200</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O8" s="9">
+        <v>3</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>90</v>
+      </c>
+      <c r="F9">
+        <v>0.7</v>
+      </c>
+      <c r="G9">
+        <v>1.3</v>
+      </c>
+      <c r="H9">
         <v>1.333</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>1.5</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>20</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>50</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>70</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M9" s="1">
+        <v>200</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O9" s="9">
+        <v>3</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
@@ -3166,7 +3264,7 @@
       <c r="K10"/>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
@@ -3177,7 +3275,7 @@
       <c r="K11"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
@@ -3188,7 +3286,7 @@
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
@@ -3199,7 +3297,7 @@
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
@@ -3209,72 +3307,6 @@
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D21"/>
@@ -3372,7 +3404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3394,82 +3426,82 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3484,15 +3516,15 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -3507,15 +3539,15 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -3530,15 +3562,15 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -3553,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3563,7 +3595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3586,73 +3618,73 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -3664,15 +3696,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>35</v>
@@ -3684,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -3751,11 +3783,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3764,157 +3796,141 @@
     <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="50.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F24" s="8"/>
+      <c r="E5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3923,10 +3939,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -3946,25 +3962,25 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -3972,23 +3988,23 @@
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -3996,23 +4012,23 @@
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -4021,20 +4037,20 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1">
         <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -4043,22 +4059,22 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -4067,22 +4083,22 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D6" s="1">
         <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4091,22 +4107,22 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D7" s="1">
         <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4115,22 +4131,22 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4276,7 +4292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4298,55 +4314,55 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Item_Info.xlsx
+++ b/Item_Info.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91255B95-9205-44E9-B738-61D54FB7DE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3EB5AC-D02A-4FFF-886F-06D3A201A801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="7" r:id="rId1"/>
-    <sheet name="UseItem" sheetId="10" r:id="rId2"/>
+    <sheet name="ThrowItem" sheetId="10" r:id="rId2"/>
     <sheet name="DropItem" sheetId="15" r:id="rId3"/>
     <sheet name="Weapon" sheetId="3" r:id="rId4"/>
     <sheet name="Armor" sheetId="4" r:id="rId5"/>
     <sheet name="Backpack" sheetId="13" r:id="rId6"/>
     <sheet name="SubWeapon" sheetId="14" r:id="rId7"/>
     <sheet name="Potion" sheetId="2" r:id="rId8"/>
-    <sheet name="Condition" sheetId="12" r:id="rId9"/>
+    <sheet name="Hone" sheetId="16" r:id="rId9"/>
+    <sheet name="Condition" sheetId="12" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="드롭테이블id">OFFSET([1]ResourceNode_DropTable!$B$4,0,0,COUNTA([1]ResourceNode_DropTable!$B:$B),1)</definedName>
     <definedName name="사용템id" localSheetId="2">OFFSET(DropItem!$B$7,0,0,COUNTA(DropItem!$B:$B),1)</definedName>
-    <definedName name="사용템id">OFFSET(UseItem!$B$7,0,0,COUNTA(UseItem!$B:$B),1)</definedName>
+    <definedName name="사용템id">OFFSET(ThrowItem!$B$7,0,0,COUNTA(ThrowItem!$B:$B),1)</definedName>
     <definedName name="아이템id">OFFSET(Item!$B$4,0,0,COUNTA(Item!$B:$B),1)</definedName>
     <definedName name="특수조건id">OFFSET(Condition!$B$4,0,0,COUNTA(Condition!$B:$B),1)</definedName>
   </definedNames>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="240">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -894,6 +895,56 @@
   </si>
   <si>
     <t>repair_ing_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throwable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 투척가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_HON_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_HON_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫돌 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫돌(소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 내구도를 회복시켜주는 숫돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_HON_002</t>
+  </si>
+  <si>
+    <t>PAR_HON_003</t>
+  </si>
+  <si>
+    <t>숫돌(중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫돌(대)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -970,7 +1021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -990,7 +1041,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1410,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1425,11 +1475,11 @@
     <col min="5" max="5" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="19.375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="9" max="13" width="19.375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1455,19 +1505,22 @@
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1502,10 +1555,13 @@
         <v>47</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1531,19 +1587,22 @@
         <v>154</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
@@ -1572,13 +1631,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
@@ -1607,13 +1669,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
@@ -1642,13 +1707,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
@@ -1677,13 +1745,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
@@ -1712,13 +1783,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
@@ -1747,13 +1821,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>63</v>
       </c>
@@ -1782,13 +1859,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>60</v>
       </c>
@@ -1811,7 +1891,7 @@
         <v>10</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -1819,51 +1899,57 @@
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>500</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>5</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>141</v>
@@ -1878,27 +1964,30 @@
         <v>5</v>
       </c>
       <c r="H13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>141</v>
@@ -1913,27 +2002,30 @@
         <v>5</v>
       </c>
       <c r="H14" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>141</v>
@@ -1942,33 +2034,36 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H15" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>141</v>
@@ -1980,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H16" s="1">
         <v>200</v>
@@ -1989,21 +2084,24 @@
         <v>0</v>
       </c>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>221</v>
+        <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>141</v>
@@ -2015,7 +2113,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H17" s="1">
         <v>200</v>
@@ -2024,21 +2122,24 @@
         <v>0</v>
       </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>141</v>
@@ -2047,33 +2148,36 @@
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H18" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>141</v>
@@ -2088,27 +2192,30 @@
         <v>3</v>
       </c>
       <c r="H19" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
       </c>
       <c r="J19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>141</v>
@@ -2117,33 +2224,36 @@
         <v>1</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
       </c>
       <c r="J20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>141</v>
@@ -2155,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H21" s="1">
         <v>200</v>
@@ -2164,21 +2274,24 @@
         <v>0</v>
       </c>
       <c r="J21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>141</v>
@@ -2187,33 +2300,36 @@
         <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H22" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>141</v>
@@ -2234,21 +2350,24 @@
         <v>0</v>
       </c>
       <c r="J23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>217</v>
+        <v>97</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>141</v>
@@ -2269,21 +2388,24 @@
         <v>0</v>
       </c>
       <c r="J24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>141</v>
@@ -2304,39 +2426,42 @@
         <v>0</v>
       </c>
       <c r="J25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E26" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H26" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -2344,16 +2469,19 @@
       <c r="K26" t="b">
         <v>1</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>141</v>
@@ -2368,27 +2496,30 @@
         <v>0.5</v>
       </c>
       <c r="H27" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>141</v>
@@ -2403,27 +2534,30 @@
         <v>0.5</v>
       </c>
       <c r="H28" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>141</v>
@@ -2438,30 +2572,153 @@
         <v>0.5</v>
       </c>
       <c r="H29" s="1">
+        <v>10</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="1">
         <v>30</v>
       </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" s="1" t="s">
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2474,7 +2731,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2804,7 +3061,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2888,7 +3145,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>6</v>
@@ -3058,7 +3315,7 @@
       <c r="N5" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5">
         <v>3</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -3105,7 +3362,7 @@
       <c r="N6" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6">
         <v>3</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -3152,7 +3409,7 @@
       <c r="N7" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7">
         <v>3</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -3199,7 +3456,7 @@
       <c r="N8" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8">
         <v>3</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -3246,7 +3503,7 @@
       <c r="N9" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9">
         <v>3</v>
       </c>
       <c r="P9" s="1" t="s">
@@ -3408,7 +3665,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4292,81 +4549,268 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6818FF-BD1E-4E5C-990F-172E1BFF2BBC}">
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.75" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>174</v>
-      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="1">
+        <v>300</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="1">
+        <v>500</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Item_Info.xlsx
+++ b/Item_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3EB5AC-D02A-4FFF-886F-06D3A201A801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2521F212-3921-4ED7-8BEB-D1C3AA26878D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="7" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="248">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -806,79 +806,76 @@
     <t>repair_ing</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>기본으로 지급되는 견습용 곡괭이</t>
+  </si>
+  <si>
+    <t>구리 곡괭이</t>
+  </si>
+  <si>
+    <t>ITM_MIN_CPR</t>
+  </si>
+  <si>
+    <t>은 곡괭이</t>
+  </si>
+  <si>
+    <t>ITM_MIN_SIL</t>
+  </si>
+  <si>
+    <t>금 곡괭이</t>
+  </si>
+  <si>
+    <t>ITM_MIN_GOL</t>
+  </si>
+  <si>
+    <t>공격력 특화 곡괭이</t>
+  </si>
+  <si>
+    <t>철 곡괭이</t>
+  </si>
+  <si>
+    <t>방어 특화 곡괭이</t>
+  </si>
+  <si>
+    <t>PAR_WPN_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">금 곡괭이+ </t>
+  </si>
+  <si>
+    <t>강공격 특화 곡괭이</t>
+  </si>
+  <si>
+    <t>PAR_SWP_001</t>
+  </si>
+  <si>
+    <t>PAR_SWP_002</t>
+  </si>
+  <si>
+    <t>채집 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_SWP_001</t>
+  </si>
+  <si>
+    <t>ITM_SWP_002</t>
+  </si>
+  <si>
+    <t>구리 망치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주석 망치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_WPN_006</t>
+  </si>
+  <si>
     <t>낡은 곡괭이</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>기본으로 지급되는 견습용 곡괭이</t>
-  </si>
-  <si>
-    <t>구리 곡괭이</t>
-  </si>
-  <si>
-    <t>ITM_MIN_CPR</t>
-  </si>
-  <si>
-    <t>은 곡괭이</t>
-  </si>
-  <si>
-    <t>ITM_MIN_SIL</t>
-  </si>
-  <si>
-    <t>금 곡괭이</t>
-  </si>
-  <si>
-    <t>ITM_MIN_GOL</t>
-  </si>
-  <si>
-    <t>공격력 특화 곡괭이</t>
-  </si>
-  <si>
-    <t>철 곡괭이</t>
-  </si>
-  <si>
-    <t>방어 특화 곡괭이</t>
-  </si>
-  <si>
-    <t>PAR_WPN_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">금 곡괭이+ </t>
-  </si>
-  <si>
-    <t>강공격 특화 곡괭이</t>
-  </si>
-  <si>
-    <t>PAR_SWP_001</t>
-  </si>
-  <si>
-    <t>PAR_SWP_002</t>
-  </si>
-  <si>
-    <t>채집 레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_SWP_001</t>
-  </si>
-  <si>
-    <t>ITM_SWP_002</t>
-  </si>
-  <si>
-    <t>구리 망치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주석 망치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_WPN_006</t>
-  </si>
-  <si>
-    <t>낡은 곡괭이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -945,6 +942,42 @@
   </si>
   <si>
     <t>숫돌(대)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THROW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARMOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACKPACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBWEAPON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POTION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1460,26 +1493,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="19.375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="19.375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1487,40 +1521,43 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1534,19 +1571,19 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>47</v>
@@ -1558,10 +1595,13 @@
         <v>47</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1569,332 +1609,356 @@
         <v>144</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="J3" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>99</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
       <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
         <v>0.2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>10</v>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
       <c r="L4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>99</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
       <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>20</v>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
       <c r="J5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>99</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
       <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <v>0.2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>30</v>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
       <c r="J6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
       <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>99</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
       <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>0.3</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>10</v>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>99</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
       <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>0.4</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>10</v>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
       <c r="J8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>99</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
       <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
         <v>0.5</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>10</v>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
       <c r="J9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>99</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
       <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
         <v>0.5</v>
       </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" t="b">
+      <c r="I10" s="1">
         <v>1</v>
       </c>
       <c r="J10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>99</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
       <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
         <v>0.1</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>10</v>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
       <c r="J11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -1902,743 +1966,803 @@
       <c r="L11" t="b">
         <v>0</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>500</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H12" s="1">
-        <v>500</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
         <v>5</v>
       </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" t="b">
+      <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
         <v>5</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>100</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
         <v>5</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>150</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
       <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
         <v>2</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>6</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>200</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
       <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>8</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>200</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
       <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
         <v>2</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>6</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>200</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
         <v>3</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>100</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
         <v>3</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>150</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
       <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
         <v>2</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>4</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>200</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
       <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
         <v>2</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>5</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>200</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
         <v>3</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>100</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
         <v>3</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>100</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1">
+        <v>100</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
         <v>3</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I26" s="1">
         <v>100</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1" t="s">
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>3</v>
-      </c>
-      <c r="H26" s="1">
-        <v>100</v>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>5</v>
       </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
       <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
         <v>0.5</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>10</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
       <c r="J27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>5</v>
       </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
       <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
         <v>0.5</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>30</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="b">
-        <v>1</v>
-      </c>
-      <c r="M28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>5</v>
       </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
       <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
         <v>0.5</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>10</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
       <c r="J29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="b">
-        <v>1</v>
-      </c>
-      <c r="M29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>5</v>
       </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
       <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
         <v>0.5</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>30</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
       <c r="J30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="b">
-        <v>1</v>
-      </c>
-      <c r="M30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="I31"/>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="I32"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
+      <c r="M32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3061,7 +3185,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3098,7 +3222,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>66</v>
@@ -3128,7 +3252,7 @@
         <v>194</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>4</v>
@@ -3192,7 +3316,7 @@
         <v>159</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>191</v>
@@ -3222,7 +3346,7 @@
         <v>198</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>8</v>
@@ -3233,7 +3357,7 @@
         <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3266,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>141</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -3280,7 +3404,7 @@
         <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -3313,13 +3437,13 @@
         <v>100</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O5">
         <v>3</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -3327,7 +3451,7 @@
         <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -3360,13 +3484,13 @@
         <v>150</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O6">
         <v>3</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -3374,7 +3498,7 @@
         <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -3407,13 +3531,13 @@
         <v>200</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O7">
         <v>3</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -3421,7 +3545,7 @@
         <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -3454,21 +3578,21 @@
         <v>200</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O8">
         <v>3</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -3501,13 +3625,13 @@
         <v>200</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O9">
         <v>3</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -4070,7 +4194,7 @@
         <v>62</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -4106,10 +4230,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4120,10 +4244,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4552,8 +4676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6818FF-BD1E-4E5C-990F-172E1BFF2BBC}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4573,13 +4697,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -4627,16 +4751,16 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" s="1">
         <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -4645,16 +4769,16 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D5" s="1">
         <v>300</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -4663,16 +4787,16 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D6" s="1">
         <v>500</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>

--- a/Item_Info.xlsx
+++ b/Item_Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2521F212-3921-4ED7-8BEB-D1C3AA26878D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5E1E40-E378-4B0D-8C66-DF12D9B8FAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="256">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소형 발소리 감소 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>발소리를 줄여주는 포션, 효과는 발소리 범위 30% 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,626 +354,655 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>가죽 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 무게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경량 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">금 곡괭이+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 차징 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_WPN_004</t>
+  </si>
+  <si>
+    <t>ITM_WPN_005</t>
+  </si>
+  <si>
+    <t>강공격 이동속도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도 특화 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명력 특화 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_ARM_002</t>
+  </si>
+  <si>
+    <t>ITM_ARM_003</t>
+  </si>
+  <si>
+    <t>ITM_ARM_004</t>
+  </si>
+  <si>
+    <t>최대 무게 특화 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 강화 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_BPK_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_BPK_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수 특화 파우치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복량 특화 파우치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테미너 소비를 감소시켜주는 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 사용가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 장착가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 등록 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 상세정보 DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_HER_JSM</t>
+  </si>
+  <si>
+    <t>PAR_HER_JNB</t>
+  </si>
+  <si>
+    <t>PAR_HER_RSM</t>
+  </si>
+  <si>
+    <t>PAR_MIN_CPR</t>
+  </si>
+  <si>
+    <t>PAR_MIN_SIL</t>
+  </si>
+  <si>
+    <t>PAR_MIN_GOL</t>
+  </si>
+  <si>
+    <t>PAR_MIN_ROC</t>
+  </si>
+  <si>
+    <t>PAR_WPN_001</t>
+  </si>
+  <si>
+    <t>PAR_WPN_002</t>
+  </si>
+  <si>
+    <t>PAR_WPN_003</t>
+  </si>
+  <si>
+    <t>PAR_WPN_004</t>
+  </si>
+  <si>
+    <t>PAR_WPN_005</t>
+  </si>
+  <si>
+    <t>PAR_ARM_001</t>
+  </si>
+  <si>
+    <t>PAR_ARM_002</t>
+  </si>
+  <si>
+    <t>PAR_ARM_003</t>
+  </si>
+  <si>
+    <t>PAR_ARM_004</t>
+  </si>
+  <si>
+    <t>PAR_BPK_001</t>
+  </si>
+  <si>
+    <t>PAR_BPK_002</t>
+  </si>
+  <si>
+    <t>PAR_POT_001</t>
+  </si>
+  <si>
+    <t>PAR_POT_002</t>
+  </si>
+  <si>
+    <t>PAR_POT_003</t>
+  </si>
+  <si>
+    <t>PAR_POT_004</t>
+  </si>
+  <si>
+    <t>PAR_DRP_SCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JNB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 최대 등록 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_register_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sprite</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>usable</t>
+  </si>
+  <si>
+    <t>wearable</t>
+  </si>
+  <si>
+    <t>pouchable</t>
+  </si>
+  <si>
+    <t>PAR_DT</t>
+  </si>
+  <si>
+    <t>max_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>sound_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>strong_Ratio</t>
+  </si>
+  <si>
+    <t>max_charge</t>
+  </si>
+  <si>
+    <t>strong_speed</t>
+  </si>
+  <si>
+    <t>guard_ratio</t>
+  </si>
+  <si>
+    <t>just_guard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>stamina</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>hiding</t>
+  </si>
+  <si>
+    <t>max_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>judge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부여 버프/디버프 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중형 공격력 증가 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형 공격력 증가 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형 정화 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong1/strong2/strong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리 비용</t>
+  </si>
+  <si>
+    <t>수리 재료</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>repair_cost</t>
+  </si>
+  <si>
+    <t>repair_ing</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>기본으로 지급되는 견습용 곡괭이</t>
+  </si>
+  <si>
+    <t>구리 곡괭이</t>
+  </si>
+  <si>
+    <t>ITM_MIN_CPR</t>
+  </si>
+  <si>
+    <t>은 곡괭이</t>
+  </si>
+  <si>
+    <t>ITM_MIN_SIL</t>
+  </si>
+  <si>
+    <t>금 곡괭이</t>
+  </si>
+  <si>
+    <t>ITM_MIN_GOL</t>
+  </si>
+  <si>
+    <t>공격력 특화 곡괭이</t>
+  </si>
+  <si>
+    <t>철 곡괭이</t>
+  </si>
+  <si>
+    <t>방어 특화 곡괭이</t>
+  </si>
+  <si>
+    <t>PAR_WPN_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">금 곡괭이+ </t>
+  </si>
+  <si>
+    <t>강공격 특화 곡괭이</t>
+  </si>
+  <si>
+    <t>PAR_SWP_001</t>
+  </si>
+  <si>
+    <t>PAR_SWP_002</t>
+  </si>
+  <si>
+    <t>채집 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_SWP_001</t>
+  </si>
+  <si>
+    <t>ITM_SWP_002</t>
+  </si>
+  <si>
+    <t>구리 망치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주석 망치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_WPN_006</t>
+  </si>
+  <si>
+    <t>낡은 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리 재료 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_ing_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throwable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 투척가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_HON_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_HON_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫돌 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫돌(소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 내구도를 회복시켜주는 숫돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_HON_002</t>
+  </si>
+  <si>
+    <t>PAR_HON_003</t>
+  </si>
+  <si>
+    <t>숫돌(중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫돌(대)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THROW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARMOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACKPACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBWEAPON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ITM_POT_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ITM_POT_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가죽 가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 무게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경량 가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철 곡괭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">금 곡괭이+ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 차징 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_WPN_004</t>
-  </si>
-  <si>
-    <t>ITM_WPN_005</t>
-  </si>
-  <si>
-    <t>강공격 이동속도 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도 특화 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생명력 특화 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_ARM_002</t>
-  </si>
-  <si>
-    <t>ITM_ARM_003</t>
-  </si>
-  <si>
-    <t>ITM_ARM_004</t>
-  </si>
-  <si>
-    <t>최대 무게 특화 가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피 강화 가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_BPK_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_BPK_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파우치 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가방 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수 특화 파우치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복량 특화 파우치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소형 스테미너 소비 감소 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테미너 소비를 감소시켜주는 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 사용가능 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 장착가능 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파우치 등록 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ITM_POT_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 상세정보 DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAR_HER_JSM</t>
-  </si>
-  <si>
-    <t>PAR_HER_JNB</t>
-  </si>
-  <si>
-    <t>PAR_HER_RSM</t>
-  </si>
-  <si>
-    <t>PAR_MIN_CPR</t>
-  </si>
-  <si>
-    <t>PAR_MIN_SIL</t>
-  </si>
-  <si>
-    <t>PAR_MIN_GOL</t>
-  </si>
-  <si>
-    <t>PAR_MIN_ROC</t>
-  </si>
-  <si>
-    <t>PAR_WPN_001</t>
-  </si>
-  <si>
-    <t>PAR_WPN_002</t>
-  </si>
-  <si>
-    <t>PAR_WPN_003</t>
-  </si>
-  <si>
-    <t>PAR_WPN_004</t>
-  </si>
-  <si>
-    <t>PAR_WPN_005</t>
-  </si>
-  <si>
-    <t>PAR_ARM_001</t>
-  </si>
-  <si>
-    <t>PAR_ARM_002</t>
-  </si>
-  <si>
-    <t>PAR_ARM_003</t>
-  </si>
-  <si>
-    <t>PAR_ARM_004</t>
-  </si>
-  <si>
-    <t>PAR_BPK_001</t>
-  </si>
-  <si>
-    <t>PAR_BPK_002</t>
+  </si>
+  <si>
+    <t>ITM_POT_005</t>
+  </si>
+  <si>
+    <t>PAR_POT_005</t>
+  </si>
+  <si>
+    <t>BOTTLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션 병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_POT_006</t>
+  </si>
+  <si>
+    <t>PAR_POT_006</t>
   </si>
   <si>
     <t>PAR_POT_001</t>
-  </si>
-  <si>
-    <t>PAR_POT_002</t>
-  </si>
-  <si>
-    <t>PAR_POT_003</t>
-  </si>
-  <si>
-    <t>PAR_POT_004</t>
-  </si>
-  <si>
-    <t>PAR_DRP_SCR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JNB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파우치 최대 등록 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_register_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>sprite</t>
-  </si>
-  <si>
-    <t>rank</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>usable</t>
-  </si>
-  <si>
-    <t>wearable</t>
-  </si>
-  <si>
-    <t>pouchable</t>
-  </si>
-  <si>
-    <t>PAR_DT</t>
-  </si>
-  <si>
-    <t>max_amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sell_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>sound_range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-  </si>
-  <si>
-    <t>strong_Ratio</t>
-  </si>
-  <si>
-    <t>max_charge</t>
-  </si>
-  <si>
-    <t>strong_speed</t>
-  </si>
-  <si>
-    <t>guard_ratio</t>
-  </si>
-  <si>
-    <t>just_guard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>stamina</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>hiding</t>
-  </si>
-  <si>
-    <t>max_weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>judge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explanation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부여 버프/디버프 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAR_POT_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중형 공격력 증가 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대형 공격력 증가 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소형 정화 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong1/strong2/strong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포션 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ratio1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ratio2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리 비용</t>
-  </si>
-  <si>
-    <t>수리 재료</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>repair_cost</t>
-  </si>
-  <si>
-    <t>repair_ing</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>기본으로 지급되는 견습용 곡괭이</t>
-  </si>
-  <si>
-    <t>구리 곡괭이</t>
-  </si>
-  <si>
-    <t>ITM_MIN_CPR</t>
-  </si>
-  <si>
-    <t>은 곡괭이</t>
-  </si>
-  <si>
-    <t>ITM_MIN_SIL</t>
-  </si>
-  <si>
-    <t>금 곡괭이</t>
-  </si>
-  <si>
-    <t>ITM_MIN_GOL</t>
-  </si>
-  <si>
-    <t>공격력 특화 곡괭이</t>
-  </si>
-  <si>
-    <t>철 곡괭이</t>
-  </si>
-  <si>
-    <t>방어 특화 곡괭이</t>
-  </si>
-  <si>
-    <t>PAR_WPN_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">금 곡괭이+ </t>
-  </si>
-  <si>
-    <t>강공격 특화 곡괭이</t>
-  </si>
-  <si>
-    <t>PAR_SWP_001</t>
-  </si>
-  <si>
-    <t>PAR_SWP_002</t>
-  </si>
-  <si>
-    <t>채집 레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_SWP_001</t>
-  </si>
-  <si>
-    <t>ITM_SWP_002</t>
-  </si>
-  <si>
-    <t>구리 망치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주석 망치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_WPN_006</t>
-  </si>
-  <si>
-    <t>낡은 곡괭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내구도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>durability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리 재료 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_ing_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>throwable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 투척가능 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_HON_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAR_HON_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫돌 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫돌(소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내구도 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기 내구도를 회복시켜주는 숫돌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAR_HON_002</t>
-  </si>
-  <si>
-    <t>PAR_HON_003</t>
-  </si>
-  <si>
-    <t>숫돌(중)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫돌(대)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>THROW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DROP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEAPON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARMOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BACKPACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUBWEAPON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션을 담는 병</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1493,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1510,10 +1535,11 @@
     <col min="7" max="7" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="14" width="19.375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="15" max="15" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1521,16 +1547,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -1542,22 +1568,25 @@
         <v>3</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1586,77 +1615,83 @@
         <v>5</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="N3" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F4" s="1">
         <v>99</v>
@@ -1682,22 +1717,25 @@
       <c r="M4" t="b">
         <v>1</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F5" s="1">
         <v>99</v>
@@ -1723,22 +1761,25 @@
       <c r="M5" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F6" s="1">
         <v>99</v>
@@ -1764,22 +1805,25 @@
       <c r="M6" t="b">
         <v>1</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F7" s="1">
         <v>99</v>
@@ -1805,22 +1849,25 @@
       <c r="M7" t="b">
         <v>1</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F8" s="1">
         <v>99</v>
@@ -1846,22 +1893,25 @@
       <c r="M8" t="b">
         <v>1</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F9" s="1">
         <v>99</v>
@@ -1887,22 +1937,25 @@
       <c r="M9" t="b">
         <v>1</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F10" s="1">
         <v>99</v>
@@ -1928,22 +1981,25 @@
       <c r="M10" t="b">
         <v>1</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F11" s="1">
         <v>99</v>
@@ -1969,22 +2025,25 @@
       <c r="M11" t="b">
         <v>0</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F12" s="1">
         <v>5</v>
@@ -2010,22 +2069,25 @@
       <c r="M12" t="b">
         <v>1</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -2051,22 +2113,25 @@
       <c r="M13" t="b">
         <v>0</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -2092,22 +2157,25 @@
       <c r="M14" t="b">
         <v>0</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -2133,22 +2201,25 @@
       <c r="M15" t="b">
         <v>0</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -2174,22 +2245,25 @@
       <c r="M16" t="b">
         <v>0</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -2215,22 +2289,25 @@
       <c r="M17" t="b">
         <v>0</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -2256,22 +2333,25 @@
       <c r="M18" t="b">
         <v>0</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -2297,22 +2377,25 @@
       <c r="M19" t="b">
         <v>0</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -2338,22 +2421,25 @@
       <c r="M20" t="b">
         <v>0</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -2379,22 +2465,25 @@
       <c r="M21" t="b">
         <v>0</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -2420,22 +2509,25 @@
       <c r="M22" t="b">
         <v>0</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -2461,22 +2553,25 @@
       <c r="M23" t="b">
         <v>0</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -2502,22 +2597,25 @@
       <c r="M24" t="b">
         <v>0</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -2543,22 +2641,25 @@
       <c r="M25" t="b">
         <v>0</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -2584,63 +2685,69 @@
       <c r="M26" t="b">
         <v>0</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="1">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F27" s="1">
-        <v>5</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I27" s="1">
-        <v>10</v>
-      </c>
-      <c r="J27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" t="b">
-        <v>1</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F28" s="1">
         <v>5</v>
@@ -2652,7 +2759,7 @@
         <v>0.5</v>
       </c>
       <c r="I28" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
@@ -2666,22 +2773,25 @@
       <c r="M28" t="b">
         <v>1</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F29" s="1">
         <v>5</v>
@@ -2693,7 +2803,7 @@
         <v>0.5</v>
       </c>
       <c r="I29" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J29" t="b">
         <v>0</v>
@@ -2707,22 +2817,25 @@
       <c r="M29" t="b">
         <v>1</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F30" s="1">
         <v>5</v>
@@ -2734,7 +2847,7 @@
         <v>0.5</v>
       </c>
       <c r="I30" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J30" t="b">
         <v>0</v>
@@ -2748,21 +2861,100 @@
       <c r="M30" t="b">
         <v>1</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>252</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2796,10 +2988,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -2824,24 +3016,24 @@
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2878,19 +3070,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -2924,19 +3116,19 @@
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>8</v>
@@ -2944,7 +3136,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>24</v>
@@ -2967,10 +3159,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -2990,10 +3182,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -3013,7 +3205,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -3036,10 +3228,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -3059,10 +3251,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -3082,10 +3274,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
@@ -3100,7 +3292,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3135,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -3157,7 +3349,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>8</v>
@@ -3165,13 +3357,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3213,46 +3405,46 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>4</v>
@@ -3293,10 +3485,10 @@
         <v>6</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>5</v>
@@ -3310,43 +3502,43 @@
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>198</v>
-      </c>
       <c r="O3" s="6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>8</v>
@@ -3354,10 +3546,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3390,21 +3582,21 @@
         <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -3437,21 +3629,21 @@
         <v>100</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="O5">
         <v>3</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -3484,21 +3676,21 @@
         <v>150</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="O6">
         <v>3</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -3531,21 +3723,21 @@
         <v>200</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="O7">
         <v>3</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -3578,21 +3770,21 @@
         <v>200</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="O8">
         <v>3</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -3625,13 +3817,13 @@
         <v>200</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="O9">
         <v>3</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -3813,7 +4005,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -3822,10 +4014,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -3859,19 +4051,19 @@
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>8</v>
@@ -3879,10 +4071,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3902,10 +4094,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -3920,15 +4112,15 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -3943,15 +4135,15 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -3966,7 +4158,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4002,19 +4194,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -4034,7 +4226,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -4045,16 +4237,16 @@
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>8</v>
@@ -4062,10 +4254,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -4077,15 +4269,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D5">
         <v>35</v>
@@ -4097,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -4188,13 +4380,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -4219,10 +4411,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -4230,30 +4422,30 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -4324,7 +4516,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4349,16 +4541,16 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -4396,17 +4588,17 @@
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>8</v>
@@ -4418,20 +4610,19 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>253</v>
+      </c>
+      <c r="C4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G4" t="s">
+        <v>255</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -4440,22 +4631,20 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>180</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -4464,22 +4653,22 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4488,22 +4677,22 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D7" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4512,22 +4701,22 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4535,12 +4724,24 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -4697,13 +4898,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -4735,11 +4936,11 @@
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -4751,16 +4952,16 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D4" s="1">
         <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -4769,16 +4970,16 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D5" s="1">
         <v>300</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -4787,16 +4988,16 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D6" s="1">
         <v>500</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>

--- a/Item_Info.xlsx
+++ b/Item_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5E1E40-E378-4B0D-8C66-DF12D9B8FAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F38227-B01E-4B67-A40C-2922C09CCF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="7" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="255">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -704,14 +704,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>strong1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1003,6 +995,10 @@
   </si>
   <si>
     <t>포션을 담는 병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purify</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1520,7 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -1547,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>17</v>
@@ -1568,7 +1564,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>100</v>
@@ -1580,7 +1576,7 @@
         <v>102</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>103</v>
@@ -1641,7 +1637,7 @@
         <v>139</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>140</v>
@@ -1662,7 +1658,7 @@
         <v>149</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>144</v>
@@ -1674,7 +1670,7 @@
         <v>146</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>147</v>
@@ -1685,7 +1681,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>24</v>
@@ -1729,7 +1725,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>40</v>
@@ -1773,7 +1769,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>41</v>
@@ -1817,7 +1813,7 @@
         <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
@@ -1861,7 +1857,7 @@
         <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>35</v>
@@ -1905,7 +1901,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>36</v>
@@ -1949,7 +1945,7 @@
         <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
@@ -1993,7 +1989,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
@@ -2034,16 +2030,16 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F12" s="1">
         <v>5</v>
@@ -2073,7 +2069,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -2081,10 +2077,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>136</v>
@@ -2125,7 +2121,7 @@
         <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>56</v>
@@ -2169,7 +2165,7 @@
         <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>57</v>
@@ -2213,7 +2209,7 @@
         <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>58</v>
@@ -2257,7 +2253,7 @@
         <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>77</v>
@@ -2298,10 +2294,10 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>78</v>
@@ -2337,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
@@ -2345,7 +2341,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>64</v>
@@ -2389,7 +2385,7 @@
         <v>88</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>80</v>
@@ -2433,7 +2429,7 @@
         <v>89</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>81</v>
@@ -2477,7 +2473,7 @@
         <v>90</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>82</v>
@@ -2521,7 +2517,7 @@
         <v>93</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>73</v>
@@ -2565,7 +2561,7 @@
         <v>94</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>76</v>
@@ -2606,13 +2602,13 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>136</v>
@@ -2645,18 +2641,18 @@
         <v>1</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>136</v>
@@ -2689,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
@@ -2697,10 +2693,10 @@
         <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>136</v>
@@ -2738,10 +2734,10 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>19</v>
@@ -2782,10 +2778,10 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>27</v>
@@ -2826,13 +2822,13 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>136</v>
@@ -2870,13 +2866,13 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>136</v>
@@ -2909,18 +2905,18 @@
         <v>0</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>136</v>
@@ -2953,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3046,8 +3042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3414,7 +3410,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>65</v>
@@ -3438,13 +3434,13 @@
         <v>69</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>4</v>
@@ -3485,10 +3481,10 @@
         <v>6</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>5</v>
@@ -3508,13 +3504,13 @@
         <v>154</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>155</v>
@@ -3532,13 +3528,13 @@
         <v>159</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>8</v>
@@ -3549,7 +3545,7 @@
         <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3582,13 +3578,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>136</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -3596,7 +3592,7 @@
         <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -3629,13 +3625,13 @@
         <v>100</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O5">
         <v>3</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -3643,7 +3639,7 @@
         <v>113</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -3676,13 +3672,13 @@
         <v>150</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O6">
         <v>3</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -3690,7 +3686,7 @@
         <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -3723,13 +3719,13 @@
         <v>200</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O7">
         <v>3</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -3737,7 +3733,7 @@
         <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -3770,21 +3766,21 @@
         <v>200</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O8">
         <v>3</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -3817,13 +3813,13 @@
         <v>200</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O9">
         <v>3</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -4386,7 +4382,7 @@
         <v>61</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -4422,10 +4418,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4436,10 +4432,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4516,7 +4512,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4547,7 +4543,7 @@
         <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>171</v>
@@ -4595,10 +4591,10 @@
         <v>168</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>8</v>
@@ -4610,19 +4606,19 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" t="s">
         <v>253</v>
-      </c>
-      <c r="C4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G4" t="s">
-        <v>255</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -4640,7 +4636,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
@@ -4662,10 +4658,10 @@
         <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>30</v>
@@ -4680,16 +4676,16 @@
         <v>125</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D7" s="1">
         <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>31</v>
@@ -4701,19 +4697,19 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D8" s="1">
         <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>31</v>
@@ -4725,19 +4721,19 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>99</v>
@@ -4898,13 +4894,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -4952,16 +4948,16 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="D4" s="1">
         <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -4970,16 +4966,16 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="D5" s="1">
         <v>300</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -4988,16 +4984,16 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="D6" s="1">
         <v>500</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
